--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5673200.87</v>
+        <v>9380376.98</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202614.32</v>
+        <v>208452.82</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388827.03</v>
+        <v>351528.09</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160670.88</v>
+        <v>160469.73</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147925.11</v>
+        <v>148169.9</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297735.96</v>
+        <v>250805.59</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142905.01</v>
+        <v>1142925.36</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420985.98</v>
+        <v>420597.92</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248273.32</v>
+        <v>245032.99</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208747.24</v>
+        <v>207837.42</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175046.9</v>
+        <v>162938.23</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300363.3</v>
+        <v>300606.87</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116996.76</v>
+        <v>116979.31</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576587.3100000001</v>
+        <v>576470.14</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82883.78</v>
+        <v>82785.39</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223330.71</v>
+        <v>213902.22</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237417.27</v>
+        <v>217773.39</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84948.8</v>
+        <v>85062.83</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129452.19</v>
+        <v>129462.91</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60640.74</v>
+        <v>60651.29</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33937.8</v>
+        <v>38857.88</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58122.18</v>
+        <v>58130.65</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86391.46000000001</v>
+        <v>69299.59</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65146.05</v>
+        <v>88074.87</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40321.26</v>
+        <v>40313.35</v>
       </c>
     </row>
     <row r="27">
@@ -697,47 +697,217 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13007.46</v>
+        <v>13001.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>294720.69</v>
+        <v>39996.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39980.46</v>
+        <v>2799.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2799.29</v>
+        <v>35000.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35035.93</v>
+        <v>75333.41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2501.66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8195.51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>35021.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>442190.83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>37512.13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>79754.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17340.22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>278833.68</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>106400.71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>40087.74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1960.72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2994.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1155073.38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5303.88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2799.31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1211900.54</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>617699.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,475 +439,632 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9380376.98</v>
+        <v>88074.87</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88171.49000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208452.82</v>
+        <v>351528.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>338229.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351528.09</v>
+        <v>40313.35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40275.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160469.73</v>
+        <v>58130.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61513.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148169.9</v>
+        <v>160469.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160594.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>250805.59</v>
+        <v>148169.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>147814.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142925.36</v>
+        <v>278833.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>279887.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420597.92</v>
+        <v>13001.49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12884.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245032.99</v>
+        <v>2994.36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2995.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207837.42</v>
+        <v>1960.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1979.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>162938.23</v>
+        <v>250805.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>247792.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300606.87</v>
+        <v>1155073.38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1145282.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116979.31</v>
+        <v>1142925.36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1141958.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576470.14</v>
+        <v>420597.92</v>
+      </c>
+      <c r="C15" t="n">
+        <v>420944.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82785.39</v>
+        <v>8195.51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8194.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>213902.22</v>
+        <v>35021.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34941.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217773.39</v>
+        <v>442190.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442216.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85062.83</v>
+        <v>75333.41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75202.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129462.91</v>
+        <v>106400.71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106360.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60651.29</v>
+        <v>2501.66</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2504.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38857.88</v>
+        <v>213902.22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>234004.44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58130.65</v>
+        <v>217773.39</v>
+      </c>
+      <c r="C23" t="n">
+        <v>230700.79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69299.59</v>
+        <v>245032.99</v>
+      </c>
+      <c r="C24" t="n">
+        <v>249184.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88074.87</v>
+        <v>207837.42</v>
+      </c>
+      <c r="C25" t="n">
+        <v>206464.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>40313.35</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2073702.77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13001.49</v>
+        <v>39996.87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40034.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39996.87</v>
+        <v>5303.88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5291.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2799.31</v>
+        <v>162938.23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>157899.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35000.18</v>
+        <v>300606.87</v>
+      </c>
+      <c r="C30" t="n">
+        <v>300647.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75333.41</v>
+        <v>38857.88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41744.48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2501.66</v>
+        <v>2799.31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3896.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8195.51</v>
+        <v>2799.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3896.97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35021.4</v>
+        <v>37512.13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>37560.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>442190.83</v>
+        <v>79754.02</v>
+      </c>
+      <c r="C35" t="n">
+        <v>79675.07000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37512.13</v>
+        <v>35000.18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35003.74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79754.02</v>
+        <v>85062.83</v>
+      </c>
+      <c r="C37" t="n">
+        <v>85115.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17340.22</v>
+        <v>129462.91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>129626.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>278833.68</v>
+        <v>69299.59</v>
+      </c>
+      <c r="C39" t="n">
+        <v>69373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106400.71</v>
+        <v>116979.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>117022.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40087.74</v>
+        <v>82785.39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82812.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1960.72</v>
+        <v>576470.14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>576713.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2994.36</v>
+        <v>1211900.54</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1211874.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1155073.38</v>
+        <v>617699.71</v>
+      </c>
+      <c r="C44" t="n">
+        <v>615981.92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5303.88</v>
+        <v>17340.22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16264.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2799.31</v>
+        <v>60651.29</v>
+      </c>
+      <c r="C46" t="n">
+        <v>60630.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1211900.54</v>
+        <v>40087.74</v>
+      </c>
+      <c r="C47" t="n">
+        <v>40119.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>617699.71</v>
+        <v>208452.82</v>
+      </c>
+      <c r="C48" t="n">
+        <v>249238.83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9380376.98</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11464986</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,647 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11479058.1</v>
+        <v>88171.49000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87857.10000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244235.28</v>
+        <v>338229.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>355152.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88171.49000000001</v>
+        <v>40275.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40345.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338229.12</v>
+        <v>61513.47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61431.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40275.09</v>
+        <v>160594.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160738.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61513.47</v>
+        <v>59.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160594.77</v>
+        <v>147814.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148451.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.04</v>
+        <v>279887.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>279976.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147814.31</v>
+        <v>12884.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12891.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279887.82</v>
+        <v>2995.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2993.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12884.17</v>
+        <v>1979.47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1978.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2995.62</v>
+        <v>247792.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>160513.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1979.47</v>
+        <v>1145282.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1130374.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>247792.75</v>
+        <v>17910.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17914.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1145282.22</v>
+        <v>1141958.47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1142049.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17910.03</v>
+        <v>420944.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>420777.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1141958.47</v>
+        <v>75202.55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>75304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420944.4</v>
+        <v>2504.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2498.91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75202.55</v>
+        <v>8194.18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8186.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2504.4</v>
+        <v>34941.85</v>
+      </c>
+      <c r="C21" t="n">
+        <v>34986.61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8194.18</v>
+        <v>442216.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>442441.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34941.85</v>
+        <v>106360.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>106795.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442216.7</v>
+        <v>234004.44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>239614.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106360.7</v>
+        <v>230700.79</v>
+      </c>
+      <c r="C25" t="n">
+        <v>234272.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234004.44</v>
+        <v>249184.42</v>
+      </c>
+      <c r="C26" t="n">
+        <v>257751.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>230700.79</v>
+        <v>206464.83</v>
+      </c>
+      <c r="C27" t="n">
+        <v>216929.81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>249184.42</v>
+        <v>2073702.77</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2149584.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>206464.83</v>
+        <v>40034.88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39995.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2073702.77</v>
+        <v>5291.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5304.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40034.88</v>
+        <v>157899.35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>158126.71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5291.3</v>
+        <v>300647.63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>295801.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157899.35</v>
+        <v>41744.48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43603.61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>300647.63</v>
+        <v>3896.97</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3897.54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41744.48</v>
+        <v>37560.76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37467.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3896.97</v>
+        <v>79675.07000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>79731.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37560.76</v>
+        <v>35003.74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35010.68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79675.07000000001</v>
+        <v>85115.45</v>
+      </c>
+      <c r="C38" t="n">
+        <v>85065.67999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35003.74</v>
+        <v>129626.95</v>
+      </c>
+      <c r="C39" t="n">
+        <v>129482.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85115.45</v>
+        <v>69373</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69275.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129626.95</v>
+        <v>117022.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>116859.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69373</v>
+        <v>82812.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>82783.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117022.34</v>
+        <v>576713.58</v>
+      </c>
+      <c r="C43" t="n">
+        <v>576814.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82812.8</v>
+        <v>1211874.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1212773.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576713.58</v>
+        <v>615981.92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>617718.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1211874.1</v>
+        <v>16264.35</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17100.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>615981.92</v>
+        <v>60630.18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>60598.85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16264.35</v>
+        <v>40119.38</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67655.60000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>60630.18</v>
+        <v>244235.28</v>
+      </c>
+      <c r="C49" t="n">
+        <v>245253.88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>40119.38</v>
+        <v>11479058.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11526932.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -636,9 +636,7 @@
       <c r="B16" t="n">
         <v>1141958.47</v>
       </c>
-      <c r="C16" t="n">
-        <v>1142049.67</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +647,7 @@
       <c r="B17" t="n">
         <v>420944.4</v>
       </c>
-      <c r="C17" t="n">
-        <v>420777.72</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +658,7 @@
       <c r="B18" t="n">
         <v>75202.55</v>
       </c>
-      <c r="C18" t="n">
-        <v>75304</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +669,7 @@
       <c r="B19" t="n">
         <v>2504.4</v>
       </c>
-      <c r="C19" t="n">
-        <v>2498.91</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +680,7 @@
       <c r="B20" t="n">
         <v>8194.18</v>
       </c>
-      <c r="C20" t="n">
-        <v>8186.09</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +691,7 @@
       <c r="B21" t="n">
         <v>34941.85</v>
       </c>
-      <c r="C21" t="n">
-        <v>34986.61</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +702,7 @@
       <c r="B22" t="n">
         <v>442216.7</v>
       </c>
-      <c r="C22" t="n">
-        <v>442441.07</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +713,7 @@
       <c r="B23" t="n">
         <v>106360.7</v>
       </c>
-      <c r="C23" t="n">
-        <v>106795.6</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +724,7 @@
       <c r="B24" t="n">
         <v>234004.44</v>
       </c>
-      <c r="C24" t="n">
-        <v>239614.19</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +735,7 @@
       <c r="B25" t="n">
         <v>230700.79</v>
       </c>
-      <c r="C25" t="n">
-        <v>234272.04</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +746,7 @@
       <c r="B26" t="n">
         <v>249184.42</v>
       </c>
-      <c r="C26" t="n">
-        <v>257751.14</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -922,9 +900,7 @@
       <c r="B38" t="n">
         <v>85115.45</v>
       </c>
-      <c r="C38" t="n">
-        <v>85065.67999999999</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1066,7 +1042,7 @@
         <v>244235.28</v>
       </c>
       <c r="C49" t="n">
-        <v>245253.88</v>
+        <v>242205.42</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1055,7 @@
         <v>11479058.1</v>
       </c>
       <c r="C50" t="n">
-        <v>11526932.25</v>
+        <v>8477189.529999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>88171.49000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87857.10000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>124212.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>124055.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>124021.96</v>
+      </c>
+      <c r="G2" t="n">
+        <v>123876.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>123858.69</v>
+      </c>
+      <c r="I2" t="n">
+        <v>98470.59</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98245.07000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>98362.46000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88665.96000000001</v>
+      </c>
+      <c r="M2" t="n">
         <v>88766.95</v>
-      </c>
-      <c r="C2" t="n">
-        <v>88900.00999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86677.85000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>88948.92999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97312.78999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>105495.04</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>338229.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>355152.98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>354765.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>367368.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>356599.11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>365900.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>350456.56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>350424.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>350744.94</v>
+      </c>
+      <c r="K3" t="n">
+        <v>361564.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>361205.14</v>
+      </c>
+      <c r="M3" t="n">
         <v>350386.23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>350751.96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>342931.27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>350143.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>350487.68</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377019.82</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>40275.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40345.22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49260.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49355.17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49180.87</v>
+      </c>
+      <c r="H4" t="n">
+        <v>49339.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49272.57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49380.12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49295.59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49280.84</v>
+      </c>
+      <c r="M4" t="n">
         <v>49283.63</v>
-      </c>
-      <c r="C4" t="n">
-        <v>49282</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48345.67</v>
-      </c>
-      <c r="E4" t="n">
-        <v>49381.86</v>
-      </c>
-      <c r="F4" t="n">
-        <v>49286.73</v>
-      </c>
-      <c r="G4" t="n">
-        <v>49379.26</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>61513.47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61431.38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63189.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63309.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63271.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63181.73</v>
+      </c>
+      <c r="H5" t="n">
+        <v>63338.61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63292.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>63241.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>65252.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>65299.22</v>
+      </c>
+      <c r="M5" t="n">
         <v>65306.32</v>
-      </c>
-      <c r="C5" t="n">
-        <v>65202.93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63825.84</v>
-      </c>
-      <c r="E5" t="n">
-        <v>65255.61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>65186.37</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74040.77</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>160594.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160738.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>160625.07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160571.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>160764.07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>160825.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>160789.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>160483.58</v>
+      </c>
+      <c r="J6" t="n">
+        <v>160423.31</v>
+      </c>
+      <c r="K6" t="n">
+        <v>160725.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>160627.83</v>
+      </c>
+      <c r="M6" t="n">
         <v>160451.44</v>
-      </c>
-      <c r="C6" t="n">
-        <v>160612.79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>157022.76</v>
-      </c>
-      <c r="E6" t="n">
-        <v>160791.94</v>
-      </c>
-      <c r="F6" t="n">
-        <v>160710.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>160582.52</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="M7" t="n">
         <v>50.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50.09</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44.04</v>
-      </c>
-      <c r="G7" t="n">
-        <v>44.27</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>147814.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148451.41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>157755.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>157769.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>158175.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>158168.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>158361.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>158360</v>
+      </c>
+      <c r="J8" t="n">
+        <v>158412.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>158168.67</v>
+      </c>
+      <c r="L8" t="n">
+        <v>158342.38</v>
+      </c>
+      <c r="M8" t="n">
         <v>157919.09</v>
-      </c>
-      <c r="C8" t="n">
-        <v>157888.41</v>
-      </c>
-      <c r="D8" t="n">
-        <v>154798.39</v>
-      </c>
-      <c r="E8" t="n">
-        <v>157892.35</v>
-      </c>
-      <c r="F8" t="n">
-        <v>158257.3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>158094.77</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>279887.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>279976.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>279629.18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>280203.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>280505</v>
+      </c>
+      <c r="G9" t="n">
+        <v>278810.51</v>
+      </c>
+      <c r="H9" t="n">
+        <v>280493.77</v>
+      </c>
+      <c r="I9" t="n">
+        <v>671139.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>691585.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>688994.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>679432.24</v>
+      </c>
+      <c r="M9" t="n">
         <v>684530.74</v>
-      </c>
-      <c r="C9" t="n">
-        <v>661280.46</v>
-      </c>
-      <c r="D9" t="n">
-        <v>666729.0600000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>669340.39</v>
-      </c>
-      <c r="F9" t="n">
-        <v>657204.85</v>
-      </c>
-      <c r="G9" t="n">
-        <v>685532.4</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>12884.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12891.26</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12900.72</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12878.96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12901.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12872.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12871.11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12899.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12849.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1523.41</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1523.5</v>
+      </c>
+      <c r="M10" t="n">
         <v>1521.64</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1523.22</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1486.35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1521.86</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1520.02</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1523.11</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2995.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2993.91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2995.63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2994.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2994.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2998.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2994.97</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2994.16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2997.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2996.88</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2997.72</v>
+      </c>
+      <c r="M11" t="n">
         <v>2994.49</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2995.87</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2930.43</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2994.94</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2996.18</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2996.46</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1979.47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1978.28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1971.91</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1962.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1985.94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1981.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1961.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1959.73</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1988.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1958.41</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1984.26</v>
+      </c>
+      <c r="M12" t="n">
         <v>1976.05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1972.88</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1924.46</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1969.74</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1978.22</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1964.11</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>247792.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>160513.36</v>
+      </c>
+      <c r="D13" t="n">
+        <v>174855.76</v>
+      </c>
+      <c r="E13" t="n">
+        <v>218401.54</v>
+      </c>
+      <c r="F13" t="n">
+        <v>228293.26</v>
+      </c>
+      <c r="G13" t="n">
+        <v>245850.17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>246102.22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>246265.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>206809.94</v>
+      </c>
+      <c r="K13" t="n">
+        <v>191264.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>153200.94</v>
+      </c>
+      <c r="M13" t="n">
         <v>152805.56</v>
-      </c>
-      <c r="C13" t="n">
-        <v>160678.58</v>
-      </c>
-      <c r="D13" t="n">
-        <v>154937.44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>136936.33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>136691.14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>130083.49</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1145282.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1130374.27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1130073.11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1130830.38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1119866.17</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1112705.65</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1112767.83</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1113006.71</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1110851.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1105383.47</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1103583.42</v>
+      </c>
+      <c r="M14" t="n">
         <v>1104086.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1100045.76</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1069651.81</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1087166.25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1078941.62</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1075076.55</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>17910.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17914.94</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17905.44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17908.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17913.81</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17914.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17910.37</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17908.96</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17910.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17907.26</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17914.5</v>
+      </c>
+      <c r="M15" t="n">
         <v>17914.77</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17908.62</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17504.14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17910.47</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17909.18</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17909.98</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1141958.47</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1142564.79</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1101130.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1100672.17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1079344.94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1078713.39</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1055805.73</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1048516.69</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1007460.03</v>
+      </c>
+      <c r="L16" t="n">
+        <v>940428.62</v>
+      </c>
+      <c r="M16" t="n">
         <v>862163.34</v>
-      </c>
-      <c r="C16" t="n">
-        <v>824159.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>805703.46</v>
-      </c>
-      <c r="E16" t="n">
-        <v>825206.5600000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>789831.61</v>
-      </c>
-      <c r="G16" t="n">
-        <v>735046.03</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1145,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>420944.4</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>372373.52</v>
+      </c>
+      <c r="E17" t="n">
+        <v>326259.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>326417.06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>326270.78</v>
+      </c>
+      <c r="H17" t="n">
+        <v>326219.12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>326120.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>326358.59</v>
+      </c>
+      <c r="K17" t="n">
+        <v>326362.89</v>
+      </c>
+      <c r="L17" t="n">
+        <v>326284.59</v>
+      </c>
+      <c r="M17" t="n">
         <v>326285.27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>326171.02</v>
-      </c>
-      <c r="D17" t="n">
-        <v>319255.03</v>
-      </c>
-      <c r="E17" t="n">
-        <v>291064.28</v>
-      </c>
-      <c r="F17" t="n">
-        <v>291038.23</v>
-      </c>
-      <c r="G17" t="n">
-        <v>291041.44</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1186,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>75202.55</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>69339.19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>69287.64999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>69266.74000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>69176.66</v>
+      </c>
+      <c r="H18" t="n">
+        <v>69254.03</v>
+      </c>
+      <c r="I18" t="n">
+        <v>69301.56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>69184.69</v>
+      </c>
+      <c r="K18" t="n">
+        <v>69310.11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>69202.77</v>
+      </c>
+      <c r="M18" t="n">
         <v>89251.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>89288.42999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>87248.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>89208.63</v>
-      </c>
-      <c r="F18" t="n">
-        <v>89214.59</v>
-      </c>
-      <c r="G18" t="n">
-        <v>89334.50999999999</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1227,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>2504.4</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>2499.29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2501.31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2499.43</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2504.24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2501.32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2503.67</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2495.06</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2501.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2502.84</v>
+      </c>
+      <c r="M19" t="n">
         <v>2499.59</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2502.78</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2441.44</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6013.51</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6010.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6008.55</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1268,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>8194.18</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>8186.47</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8196.33</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8189.77</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8198.59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8186.55</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8199.17</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8188.93</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8197.219999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8189.17</v>
+      </c>
+      <c r="M20" t="n">
         <v>8187.54</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8190.76</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8007.63</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13454.06</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13449.04</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13441.09</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1309,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>34941.85</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>31387.35</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22168.82</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22306.87</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22157.46</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21987.52</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22149.82</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22296.12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>22168.21</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22221.52</v>
+      </c>
+      <c r="M21" t="n">
         <v>51140.15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>51225.05</v>
-      </c>
-      <c r="D21" t="n">
-        <v>49787.52</v>
-      </c>
-      <c r="E21" t="n">
-        <v>51258.51</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50970.09</v>
-      </c>
-      <c r="G21" t="n">
-        <v>50788.27</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1350,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>442216.7</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>416460.79</v>
+      </c>
+      <c r="E22" t="n">
+        <v>405384.12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>396226.89</v>
+      </c>
+      <c r="G22" t="n">
+        <v>356215.79</v>
+      </c>
+      <c r="H22" t="n">
+        <v>356698.65</v>
+      </c>
+      <c r="I22" t="n">
+        <v>355679.84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>355957.56</v>
+      </c>
+      <c r="K22" t="n">
+        <v>356656.01</v>
+      </c>
+      <c r="L22" t="n">
+        <v>356351.14</v>
+      </c>
+      <c r="M22" t="n">
         <v>380281.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>380620.77</v>
-      </c>
-      <c r="D22" t="n">
-        <v>371681.68</v>
-      </c>
-      <c r="E22" t="n">
-        <v>433120.82</v>
-      </c>
-      <c r="F22" t="n">
-        <v>433177.02</v>
-      </c>
-      <c r="G22" t="n">
-        <v>433113.87</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1391,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>106360.7</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>106771.35</v>
+      </c>
+      <c r="E23" t="n">
+        <v>106848.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>106040.47</v>
+      </c>
+      <c r="G23" t="n">
+        <v>86426.48</v>
+      </c>
+      <c r="H23" t="n">
+        <v>86086.09</v>
+      </c>
+      <c r="I23" t="n">
+        <v>86440.96000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>86504.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>86800.64</v>
+      </c>
+      <c r="L23" t="n">
+        <v>86484.94</v>
+      </c>
+      <c r="M23" t="n">
         <v>86979.92</v>
-      </c>
-      <c r="C23" t="n">
-        <v>86545.74000000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>85020.71000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>135259.97</v>
-      </c>
-      <c r="F23" t="n">
-        <v>134899.18</v>
-      </c>
-      <c r="G23" t="n">
-        <v>134712.29</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1432,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>234004.44</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>247231.47</v>
+      </c>
+      <c r="E24" t="n">
+        <v>266926.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>275353.71</v>
+      </c>
+      <c r="G24" t="n">
+        <v>274006.54</v>
+      </c>
+      <c r="H24" t="n">
+        <v>273733.35</v>
+      </c>
+      <c r="I24" t="n">
+        <v>264553.94</v>
+      </c>
+      <c r="J24" t="n">
+        <v>262515.82</v>
+      </c>
+      <c r="K24" t="n">
+        <v>254526.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>254417.45</v>
+      </c>
+      <c r="M24" t="n">
         <v>254712.54</v>
-      </c>
-      <c r="C24" t="n">
-        <v>254674.97</v>
-      </c>
-      <c r="D24" t="n">
-        <v>248947.06</v>
-      </c>
-      <c r="E24" t="n">
-        <v>254821.61</v>
-      </c>
-      <c r="F24" t="n">
-        <v>257746.3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>261326.26</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1473,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>230700.79</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>249903.77</v>
+      </c>
+      <c r="E25" t="n">
+        <v>255423.76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>254617.57</v>
+      </c>
+      <c r="G25" t="n">
+        <v>251669.71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>251535.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>251193.28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>245583.09</v>
+      </c>
+      <c r="K25" t="n">
+        <v>245420.03</v>
+      </c>
+      <c r="L25" t="n">
+        <v>240406.76</v>
+      </c>
+      <c r="M25" t="n">
         <v>240315.39</v>
-      </c>
-      <c r="C25" t="n">
-        <v>240551.73</v>
-      </c>
-      <c r="D25" t="n">
-        <v>235080.53</v>
-      </c>
-      <c r="E25" t="n">
-        <v>235140.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>241524.17</v>
-      </c>
-      <c r="G25" t="n">
-        <v>245362.58</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1514,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>249184.42</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>222556.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>240484.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>237102.39</v>
+      </c>
+      <c r="G26" t="n">
+        <v>236480.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>236843.68</v>
+      </c>
+      <c r="I26" t="n">
+        <v>234171.17</v>
+      </c>
+      <c r="J26" t="n">
+        <v>234094.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>234182.83</v>
+      </c>
+      <c r="L26" t="n">
+        <v>231129.26</v>
+      </c>
+      <c r="M26" t="n">
         <v>225749.32</v>
-      </c>
-      <c r="C26" t="n">
-        <v>226088.25</v>
-      </c>
-      <c r="D26" t="n">
-        <v>219131.89</v>
-      </c>
-      <c r="E26" t="n">
-        <v>218900.82</v>
-      </c>
-      <c r="F26" t="n">
-        <v>232956.65</v>
-      </c>
-      <c r="G26" t="n">
-        <v>240387.68</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1555,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>206464.83</v>
+      </c>
+      <c r="C27" t="n">
+        <v>216929.81</v>
+      </c>
+      <c r="D27" t="n">
+        <v>223521.83</v>
+      </c>
+      <c r="E27" t="n">
+        <v>234847.32</v>
+      </c>
+      <c r="F27" t="n">
+        <v>236883.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>237343.79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>237073.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>237193.95</v>
+      </c>
+      <c r="J27" t="n">
+        <v>237330.03</v>
+      </c>
+      <c r="K27" t="n">
+        <v>236990.72</v>
+      </c>
+      <c r="L27" t="n">
+        <v>231953.39</v>
+      </c>
+      <c r="M27" t="n">
         <v>232357.23</v>
-      </c>
-      <c r="C27" t="n">
-        <v>226897.02</v>
-      </c>
-      <c r="D27" t="n">
-        <v>222179.38</v>
-      </c>
-      <c r="E27" t="n">
-        <v>211426.21</v>
-      </c>
-      <c r="F27" t="n">
-        <v>214494.15</v>
-      </c>
-      <c r="G27" t="n">
-        <v>210400.51</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1598,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>2073702.77</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2149584.31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2149944.22</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2150956.97</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2150095.81</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2150838.78</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1500027.92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1498851.98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1499868.97</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1499745.44</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1498821.49</v>
+      </c>
+      <c r="M28" t="n">
         <v>1499194.09</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1501036.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1465480.19</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1499213.33</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1500035.75</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1499639.85</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1641,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>40034.88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39995.45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40036.92</v>
+      </c>
+      <c r="E29" t="n">
+        <v>39989.09</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39989.87</v>
+      </c>
+      <c r="G29" t="n">
+        <v>40012.07</v>
+      </c>
+      <c r="H29" t="n">
+        <v>40027.99</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39954.95</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39958.51</v>
+      </c>
+      <c r="K29" t="n">
+        <v>40029.99</v>
+      </c>
+      <c r="L29" t="n">
+        <v>40011.86</v>
+      </c>
+      <c r="M29" t="n">
         <v>40027.86</v>
-      </c>
-      <c r="C29" t="n">
-        <v>39968.48</v>
-      </c>
-      <c r="D29" t="n">
-        <v>39084.77</v>
-      </c>
-      <c r="E29" t="n">
-        <v>39982.94</v>
-      </c>
-      <c r="F29" t="n">
-        <v>39976.61</v>
-      </c>
-      <c r="G29" t="n">
-        <v>40011.15</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1684,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>5291.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5304.06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5311.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5302.68</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5292.59</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5309.89</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5295.59</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5295.44</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5298.97</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5301.89</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5295.86</v>
+      </c>
+      <c r="M30" t="n">
         <v>5304.51</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5296.21</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5193.51</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5295.18</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5289.2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5295.53</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1727,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>157899.35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>158126.71</v>
+      </c>
+      <c r="D31" t="n">
+        <v>153050.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>152830.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>152895.13</v>
+      </c>
+      <c r="G31" t="n">
+        <v>148092.28</v>
+      </c>
+      <c r="H31" t="n">
+        <v>147861.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>128056.41</v>
+      </c>
+      <c r="J31" t="n">
+        <v>123141.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>117982.62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>117900.24</v>
+      </c>
+      <c r="M31" t="n">
         <v>118035.71</v>
-      </c>
-      <c r="C31" t="n">
-        <v>112884</v>
-      </c>
-      <c r="D31" t="n">
-        <v>110356.73</v>
-      </c>
-      <c r="E31" t="n">
-        <v>112954.89</v>
-      </c>
-      <c r="F31" t="n">
-        <v>113035.36</v>
-      </c>
-      <c r="G31" t="n">
-        <v>113085.91</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1770,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>300647.63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>295801.43</v>
+      </c>
+      <c r="D32" t="n">
+        <v>250275.02</v>
+      </c>
+      <c r="E32" t="n">
+        <v>250561.67</v>
+      </c>
+      <c r="F32" t="n">
+        <v>250643.6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>230543.28</v>
+      </c>
+      <c r="H32" t="n">
+        <v>230325.57</v>
+      </c>
+      <c r="I32" t="n">
+        <v>220569.37</v>
+      </c>
+      <c r="J32" t="n">
+        <v>215472.14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>215397.74</v>
+      </c>
+      <c r="L32" t="n">
+        <v>191226.5</v>
+      </c>
+      <c r="M32" t="n">
         <v>186117.43</v>
-      </c>
-      <c r="C32" t="n">
-        <v>181475.65</v>
-      </c>
-      <c r="D32" t="n">
-        <v>177267.23</v>
-      </c>
-      <c r="E32" t="n">
-        <v>181124.46</v>
-      </c>
-      <c r="F32" t="n">
-        <v>181432.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>186227.76</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1813,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>41744.48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43603.61</v>
+      </c>
+      <c r="D33" t="n">
+        <v>56122.92</v>
+      </c>
+      <c r="E33" t="n">
+        <v>58730.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>58143.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>58185.04</v>
+      </c>
+      <c r="H33" t="n">
+        <v>69134.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>69012.81</v>
+      </c>
+      <c r="J33" t="n">
+        <v>69056.47</v>
+      </c>
+      <c r="K33" t="n">
+        <v>69160.62</v>
+      </c>
+      <c r="L33" t="n">
+        <v>68586.03</v>
+      </c>
+      <c r="M33" t="n">
         <v>60413.67</v>
-      </c>
-      <c r="C33" t="n">
-        <v>60464.68</v>
-      </c>
-      <c r="D33" t="n">
-        <v>57414.09</v>
-      </c>
-      <c r="E33" t="n">
-        <v>58100.95</v>
-      </c>
-      <c r="F33" t="n">
-        <v>59455.11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>62867.95</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1856,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>3896.97</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3897.54</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4431.63</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4425.64</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4438</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4432.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4443.12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4431.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4430.14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4441.67</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4429.06</v>
+      </c>
+      <c r="M34" t="n">
         <v>4439.87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4157.09</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4062.52</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4148.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4159.35</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4155.34</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1899,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>37560.76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37467.97</v>
+      </c>
+      <c r="D35" t="n">
+        <v>37460.79</v>
+      </c>
+      <c r="E35" t="n">
+        <v>37533.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37488.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>37487.56</v>
+      </c>
+      <c r="H35" t="n">
+        <v>37503.73</v>
+      </c>
+      <c r="I35" t="n">
+        <v>37560.82</v>
+      </c>
+      <c r="J35" t="n">
+        <v>30026.52</v>
+      </c>
+      <c r="K35" t="n">
+        <v>30046.97</v>
+      </c>
+      <c r="L35" t="n">
+        <v>30013.22</v>
+      </c>
+      <c r="M35" t="n">
         <v>30045.65</v>
-      </c>
-      <c r="C35" t="n">
-        <v>30013.17</v>
-      </c>
-      <c r="D35" t="n">
-        <v>29319.63</v>
-      </c>
-      <c r="E35" t="n">
-        <v>29942.27</v>
-      </c>
-      <c r="F35" t="n">
-        <v>30021.87</v>
-      </c>
-      <c r="G35" t="n">
-        <v>30095.34</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1942,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>79675.07000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>79731.38</v>
+      </c>
+      <c r="D36" t="n">
+        <v>79744.92999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>79684.23</v>
+      </c>
+      <c r="F36" t="n">
+        <v>79708.75999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>79718.58</v>
+      </c>
+      <c r="H36" t="n">
+        <v>79685.37</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79699.89</v>
+      </c>
+      <c r="J36" t="n">
+        <v>79705.13</v>
+      </c>
+      <c r="K36" t="n">
+        <v>79723.25999999999</v>
+      </c>
+      <c r="L36" t="n">
+        <v>79748.44</v>
+      </c>
+      <c r="M36" t="n">
         <v>79725.00999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>79764.32000000001</v>
-      </c>
-      <c r="D36" t="n">
-        <v>77973.47</v>
-      </c>
-      <c r="E36" t="n">
-        <v>79685.89</v>
-      </c>
-      <c r="F36" t="n">
-        <v>79672.13</v>
-      </c>
-      <c r="G36" t="n">
-        <v>79677.14</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1985,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>35003.74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35010.68</v>
+      </c>
+      <c r="D37" t="n">
+        <v>34996.82</v>
+      </c>
+      <c r="E37" t="n">
+        <v>34979.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>32522.61</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32556.72</v>
+      </c>
+      <c r="H37" t="n">
+        <v>32548.36</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32503.21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32537.01</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32482.99</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32500.58</v>
+      </c>
+      <c r="M37" t="n">
         <v>32493.76</v>
-      </c>
-      <c r="C37" t="n">
-        <v>32556.78</v>
-      </c>
-      <c r="D37" t="n">
-        <v>31831.84</v>
-      </c>
-      <c r="E37" t="n">
-        <v>36345.61</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36341.06</v>
-      </c>
-      <c r="G37" t="n">
-        <v>41440.09</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2028,38 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>85115.45</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>85134.83</v>
+      </c>
+      <c r="E38" t="n">
+        <v>85070.00999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>84920.62</v>
+      </c>
+      <c r="G38" t="n">
+        <v>85022.81</v>
+      </c>
+      <c r="H38" t="n">
+        <v>85118.53</v>
+      </c>
+      <c r="I38" t="n">
+        <v>84937.98</v>
+      </c>
+      <c r="J38" t="n">
+        <v>84860.36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>85063.55</v>
+      </c>
+      <c r="L38" t="n">
+        <v>85105.91</v>
+      </c>
+      <c r="M38" t="n">
         <v>85111.58</v>
-      </c>
-      <c r="C38" t="n">
-        <v>85031.91</v>
-      </c>
-      <c r="D38" t="n">
-        <v>83041.95</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75699.85000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>75781.64</v>
-      </c>
-      <c r="G38" t="n">
-        <v>75825.11</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2069,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>129626.95</v>
+      </c>
+      <c r="C39" t="n">
+        <v>129482.29</v>
+      </c>
+      <c r="D39" t="n">
+        <v>129325.15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>202186.47</v>
+      </c>
+      <c r="F39" t="n">
+        <v>202404.45</v>
+      </c>
+      <c r="G39" t="n">
+        <v>202161.98</v>
+      </c>
+      <c r="H39" t="n">
+        <v>202500.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>202532.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>202177.14</v>
+      </c>
+      <c r="K39" t="n">
+        <v>202120.49</v>
+      </c>
+      <c r="L39" t="n">
+        <v>202193.86</v>
+      </c>
+      <c r="M39" t="n">
         <v>202300.94</v>
-      </c>
-      <c r="C39" t="n">
-        <v>202496.09</v>
-      </c>
-      <c r="D39" t="n">
-        <v>197594.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>202531.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>202403.82</v>
-      </c>
-      <c r="G39" t="n">
-        <v>202173.08</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2112,40 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>69373</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69275.31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>79302.22</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79325.52</v>
+      </c>
+      <c r="F40" t="n">
+        <v>79356.17999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>79371.44</v>
+      </c>
+      <c r="H40" t="n">
+        <v>83412.08</v>
+      </c>
+      <c r="I40" t="n">
+        <v>83422.96000000001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>88262.91</v>
+      </c>
+      <c r="K40" t="n">
+        <v>80299.03999999999</v>
+      </c>
+      <c r="L40" t="n">
+        <v>86257.33</v>
+      </c>
+      <c r="M40" t="n">
         <v>86414.69</v>
-      </c>
-      <c r="C40" t="n">
-        <v>86334.14999999999</v>
-      </c>
-      <c r="D40" t="n">
-        <v>84416.27</v>
-      </c>
-      <c r="E40" t="n">
-        <v>86246.39</v>
-      </c>
-      <c r="F40" t="n">
-        <v>86249.28</v>
-      </c>
-      <c r="G40" t="n">
-        <v>92796.91</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2155,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>117022.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>116859.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>116885.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>116890.29</v>
+      </c>
+      <c r="F41" t="n">
+        <v>116800.49</v>
+      </c>
+      <c r="G41" t="n">
+        <v>117066.31</v>
+      </c>
+      <c r="H41" t="n">
+        <v>116871.23</v>
+      </c>
+      <c r="I41" t="n">
+        <v>117073.57</v>
+      </c>
+      <c r="J41" t="n">
+        <v>117041.93</v>
+      </c>
+      <c r="K41" t="n">
+        <v>116879.83</v>
+      </c>
+      <c r="L41" t="n">
+        <v>116875.96</v>
+      </c>
+      <c r="M41" t="n">
         <v>116933.27</v>
-      </c>
-      <c r="C41" t="n">
-        <v>117012.91</v>
-      </c>
-      <c r="D41" t="n">
-        <v>114200.21</v>
-      </c>
-      <c r="E41" t="n">
-        <v>130347.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>130487.74</v>
-      </c>
-      <c r="G41" t="n">
-        <v>148333.93</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2198,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>82812.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>82783.25</v>
+      </c>
+      <c r="D42" t="n">
+        <v>77949.88</v>
+      </c>
+      <c r="E42" t="n">
+        <v>76528.53</v>
+      </c>
+      <c r="F42" t="n">
+        <v>82599.48</v>
+      </c>
+      <c r="G42" t="n">
+        <v>83602.53999999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>83861.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>83798.13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>83807.59</v>
+      </c>
+      <c r="K42" t="n">
+        <v>83804.84</v>
+      </c>
+      <c r="L42" t="n">
+        <v>83804.23</v>
+      </c>
+      <c r="M42" t="n">
         <v>81305.96000000001</v>
-      </c>
-      <c r="C42" t="n">
-        <v>76914.88</v>
-      </c>
-      <c r="D42" t="n">
-        <v>75285.49000000001</v>
-      </c>
-      <c r="E42" t="n">
-        <v>77857.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>76777</v>
-      </c>
-      <c r="G42" t="n">
-        <v>83807.82000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2241,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>576713.58</v>
+      </c>
+      <c r="C43" t="n">
+        <v>576814.16</v>
+      </c>
+      <c r="D43" t="n">
+        <v>576571.37</v>
+      </c>
+      <c r="E43" t="n">
+        <v>576493.15</v>
+      </c>
+      <c r="F43" t="n">
+        <v>576881.42</v>
+      </c>
+      <c r="G43" t="n">
+        <v>576550.1800000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>552632.53</v>
+      </c>
+      <c r="I43" t="n">
+        <v>553050.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>552388.28</v>
+      </c>
+      <c r="K43" t="n">
+        <v>552993.48</v>
+      </c>
+      <c r="L43" t="n">
+        <v>527895.72</v>
+      </c>
+      <c r="M43" t="n">
         <v>527734.62</v>
-      </c>
-      <c r="C43" t="n">
-        <v>528123.98</v>
-      </c>
-      <c r="D43" t="n">
-        <v>516000.18</v>
-      </c>
-      <c r="E43" t="n">
-        <v>527906.73</v>
-      </c>
-      <c r="F43" t="n">
-        <v>538510.24</v>
-      </c>
-      <c r="G43" t="n">
-        <v>538149.04</v>
       </c>
     </row>
     <row r="44">
@@ -1522,122 +2284,262 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>1211874.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1212773.08</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1212059.14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1211965.01</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1212208.22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1204885.71</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1208756</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1192124.85</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1104253.59</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1105328.35</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1104538.96</v>
+      </c>
+      <c r="M44" t="n">
         <v>1065257.95</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1064971.13</v>
-      </c>
-      <c r="D44" t="n">
-        <v>985741.47</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1008687.61</v>
-      </c>
-      <c r="F44" t="n">
-        <v>902815.1800000001</v>
-      </c>
-      <c r="G44" t="n">
-        <v>902919.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16416.7</v>
+        <v>615981.92</v>
       </c>
       <c r="C45" t="n">
-        <v>16673.16</v>
+        <v>617718.1</v>
       </c>
       <c r="D45" t="n">
-        <v>16925.43</v>
-      </c>
-      <c r="E45" t="n">
-        <v>16878.04</v>
-      </c>
-      <c r="F45" t="n">
-        <v>17385.74</v>
-      </c>
-      <c r="G45" t="n">
-        <v>16510.38</v>
-      </c>
+        <v>615709.1899999999</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60631.4</v>
+        <v>16264.35</v>
       </c>
       <c r="C46" t="n">
-        <v>60678.72</v>
+        <v>17100.51</v>
       </c>
       <c r="D46" t="n">
-        <v>59283.85</v>
+        <v>17097.36</v>
       </c>
       <c r="E46" t="n">
-        <v>60645.3</v>
+        <v>16851.22</v>
       </c>
       <c r="F46" t="n">
-        <v>60666.02</v>
+        <v>17136.68</v>
       </c>
       <c r="G46" t="n">
-        <v>60622.52</v>
+        <v>17791.63</v>
+      </c>
+      <c r="H46" t="n">
+        <v>16261.97</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18007.61</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16203.96</v>
+      </c>
+      <c r="K46" t="n">
+        <v>17863.45</v>
+      </c>
+      <c r="L46" t="n">
+        <v>17107.23</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16416.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>219907.16</v>
+        <v>60630.18</v>
       </c>
       <c r="C47" t="n">
-        <v>218263.63</v>
+        <v>60598.85</v>
       </c>
       <c r="D47" t="n">
-        <v>212306.05</v>
+        <v>60618.95</v>
       </c>
       <c r="E47" t="n">
-        <v>217528.32</v>
+        <v>60599.1</v>
       </c>
       <c r="F47" t="n">
-        <v>214985.18</v>
+        <v>60651.86</v>
       </c>
       <c r="G47" t="n">
-        <v>216318.68</v>
+        <v>60684.85</v>
+      </c>
+      <c r="H47" t="n">
+        <v>60601.92</v>
+      </c>
+      <c r="I47" t="n">
+        <v>60585.29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>60644.45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60633.89</v>
+      </c>
+      <c r="L47" t="n">
+        <v>60649.43</v>
+      </c>
+      <c r="M47" t="n">
+        <v>60631.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>40119.38</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67655.60000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>80742.60000000001</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>244235.28</v>
+      </c>
+      <c r="C49" t="n">
+        <v>242205.42</v>
+      </c>
+      <c r="D49" t="n">
+        <v>244188.71</v>
+      </c>
+      <c r="E49" t="n">
+        <v>241509.63</v>
+      </c>
+      <c r="F49" t="n">
+        <v>241254.59</v>
+      </c>
+      <c r="G49" t="n">
+        <v>239076.23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>224155.65</v>
+      </c>
+      <c r="I49" t="n">
+        <v>230473.66</v>
+      </c>
+      <c r="J49" t="n">
+        <v>227414.56</v>
+      </c>
+      <c r="K49" t="n">
+        <v>225629.46</v>
+      </c>
+      <c r="L49" t="n">
+        <v>221480.96</v>
+      </c>
+      <c r="M49" t="n">
+        <v>219907.16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
+        <v>11479058.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8477189.529999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11476869.28</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10867933.22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10856456.63</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10758430.39</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10087004.39</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10371314.52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>10233655.17</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10153325.48</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9966643.25</v>
+      </c>
+      <c r="M50" t="n">
         <v>9895822.32</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9821863.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9553772.130000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9788774.380000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9674332.98</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9734340.380000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88171.49000000001</v>
+        <v>88766.95</v>
       </c>
       <c r="C2" t="n">
-        <v>87857.10000000001</v>
+        <v>88900.00999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>124212.9</v>
+        <v>86677.85000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>124055.68</v>
+        <v>88948.92999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>124021.96</v>
+        <v>97312.78999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>123876.2</v>
+        <v>105495.04</v>
       </c>
       <c r="H2" t="n">
-        <v>123858.69</v>
+        <v>105705.82</v>
       </c>
       <c r="I2" t="n">
-        <v>98470.59</v>
+        <v>105801.45</v>
       </c>
       <c r="J2" t="n">
-        <v>98245.07000000001</v>
+        <v>138059.33</v>
       </c>
       <c r="K2" t="n">
-        <v>98362.46000000001</v>
+        <v>138371.1</v>
       </c>
       <c r="L2" t="n">
-        <v>88665.96000000001</v>
+        <v>138437.83</v>
       </c>
       <c r="M2" t="n">
-        <v>88766.95</v>
+        <v>138514.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>153275.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>167324.42</v>
+      </c>
+      <c r="P2" t="n">
+        <v>174487.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>174649.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>174458.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>174914.24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>166704.93</v>
+      </c>
+      <c r="U2" t="n">
+        <v>153833.13</v>
+      </c>
+      <c r="V2" t="n">
+        <v>154517.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>154606.33</v>
+      </c>
+      <c r="X2" t="n">
+        <v>172893.94</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>162359.52</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>184930.72</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>184584.39</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338229.12</v>
+        <v>350386.23</v>
       </c>
       <c r="C3" t="n">
-        <v>355152.98</v>
+        <v>350751.96</v>
       </c>
       <c r="D3" t="n">
-        <v>354765.96</v>
+        <v>342931.27</v>
       </c>
       <c r="E3" t="n">
-        <v>367368.37</v>
+        <v>350143.6</v>
       </c>
       <c r="F3" t="n">
-        <v>356599.11</v>
+        <v>350487.68</v>
       </c>
       <c r="G3" t="n">
-        <v>365900.7</v>
+        <v>377019.82</v>
       </c>
       <c r="H3" t="n">
-        <v>350456.56</v>
+        <v>377293.97</v>
       </c>
       <c r="I3" t="n">
-        <v>350424.13</v>
+        <v>392956.09</v>
       </c>
       <c r="J3" t="n">
-        <v>350744.94</v>
+        <v>412382.03</v>
       </c>
       <c r="K3" t="n">
-        <v>361564.31</v>
+        <v>431921.52</v>
       </c>
       <c r="L3" t="n">
-        <v>361205.14</v>
+        <v>416890.92</v>
       </c>
       <c r="M3" t="n">
-        <v>350386.23</v>
+        <v>403008.71</v>
+      </c>
+      <c r="N3" t="n">
+        <v>402157.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>402429.58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>391227.21</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>412081.66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>416477.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>415496.73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>416076.37</v>
+      </c>
+      <c r="U3" t="n">
+        <v>416347.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>416631.66</v>
+      </c>
+      <c r="W3" t="n">
+        <v>416363.04</v>
+      </c>
+      <c r="X3" t="n">
+        <v>451181.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>428473.43</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>448584.09</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>435191.54</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40275.09</v>
+        <v>49283.63</v>
       </c>
       <c r="C4" t="n">
-        <v>40345.22</v>
+        <v>49282</v>
       </c>
       <c r="D4" t="n">
-        <v>40366</v>
+        <v>48345.67</v>
       </c>
       <c r="E4" t="n">
-        <v>49260.97</v>
+        <v>49381.86</v>
       </c>
       <c r="F4" t="n">
-        <v>49355.17</v>
+        <v>49286.73</v>
       </c>
       <c r="G4" t="n">
-        <v>49180.87</v>
+        <v>49379.26</v>
       </c>
       <c r="H4" t="n">
-        <v>49339.77</v>
+        <v>49290.59</v>
       </c>
       <c r="I4" t="n">
-        <v>49272.57</v>
+        <v>49333.78</v>
       </c>
       <c r="J4" t="n">
-        <v>49380.12</v>
+        <v>57461.92</v>
       </c>
       <c r="K4" t="n">
-        <v>49295.59</v>
+        <v>57482.12</v>
       </c>
       <c r="L4" t="n">
-        <v>49280.84</v>
+        <v>57455.7</v>
       </c>
       <c r="M4" t="n">
-        <v>49283.63</v>
+        <v>57529.32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>57447.43</v>
+      </c>
+      <c r="O4" t="n">
+        <v>57600.13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>57502.45</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>57516.51</v>
+      </c>
+      <c r="R4" t="n">
+        <v>57569.83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>71354.83</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71393.64</v>
+      </c>
+      <c r="U4" t="n">
+        <v>71409.19</v>
+      </c>
+      <c r="V4" t="n">
+        <v>71340.33</v>
+      </c>
+      <c r="W4" t="n">
+        <v>71350.92</v>
+      </c>
+      <c r="X4" t="n">
+        <v>71368.08</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>92123.82000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>92298.05</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>92257.64999999999</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61513.47</v>
+        <v>65306.32</v>
       </c>
       <c r="C5" t="n">
-        <v>61431.38</v>
+        <v>65202.93</v>
       </c>
       <c r="D5" t="n">
-        <v>63189.15</v>
+        <v>63825.84</v>
       </c>
       <c r="E5" t="n">
-        <v>63309.59</v>
+        <v>65255.61</v>
       </c>
       <c r="F5" t="n">
-        <v>63271.39</v>
+        <v>65186.37</v>
       </c>
       <c r="G5" t="n">
-        <v>63181.73</v>
+        <v>74040.77</v>
       </c>
       <c r="H5" t="n">
-        <v>63338.61</v>
+        <v>82705.83</v>
       </c>
       <c r="I5" t="n">
-        <v>63292.47</v>
+        <v>82752.89999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>63241.97</v>
+        <v>94402.74000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>65252.4</v>
+        <v>94378.16</v>
       </c>
       <c r="L5" t="n">
-        <v>65299.22</v>
+        <v>94499.2</v>
       </c>
       <c r="M5" t="n">
-        <v>65306.32</v>
+        <v>118874.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>134150.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>134142.09</v>
+      </c>
+      <c r="P5" t="n">
+        <v>134174.29</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>139939.29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>139969.91</v>
+      </c>
+      <c r="S5" t="n">
+        <v>175002.52</v>
+      </c>
+      <c r="T5" t="n">
+        <v>193344.74</v>
+      </c>
+      <c r="U5" t="n">
+        <v>198198.39</v>
+      </c>
+      <c r="V5" t="n">
+        <v>255204.29</v>
+      </c>
+      <c r="W5" t="n">
+        <v>265264.55</v>
+      </c>
+      <c r="X5" t="n">
+        <v>270355.45</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>270269.98</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>277998.29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>271012.94</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160594.77</v>
+        <v>160451.44</v>
       </c>
       <c r="C6" t="n">
-        <v>160738.57</v>
+        <v>160612.79</v>
       </c>
       <c r="D6" t="n">
-        <v>160625.07</v>
+        <v>157022.76</v>
       </c>
       <c r="E6" t="n">
-        <v>160571.28</v>
+        <v>160791.94</v>
       </c>
       <c r="F6" t="n">
-        <v>160764.07</v>
+        <v>160710.01</v>
       </c>
       <c r="G6" t="n">
-        <v>160825.4</v>
+        <v>160582.52</v>
       </c>
       <c r="H6" t="n">
-        <v>160789.97</v>
+        <v>160634.73</v>
       </c>
       <c r="I6" t="n">
-        <v>160483.58</v>
+        <v>160433.89</v>
       </c>
       <c r="J6" t="n">
-        <v>160423.31</v>
+        <v>160583.86</v>
       </c>
       <c r="K6" t="n">
-        <v>160725.84</v>
+        <v>160485.68</v>
       </c>
       <c r="L6" t="n">
-        <v>160627.83</v>
+        <v>160558.37</v>
       </c>
       <c r="M6" t="n">
-        <v>160451.44</v>
+        <v>160719.28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>160536.08</v>
+      </c>
+      <c r="O6" t="n">
+        <v>160448.89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>160934.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>160760.87</v>
+      </c>
+      <c r="R6" t="n">
+        <v>160631.99</v>
+      </c>
+      <c r="S6" t="n">
+        <v>160830.12</v>
+      </c>
+      <c r="T6" t="n">
+        <v>160872.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>160712.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>160305.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>160483.74</v>
+      </c>
+      <c r="X6" t="n">
+        <v>160764.27</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>160249.84</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>160832.58</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160660.84</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.04</v>
+        <v>50.6</v>
       </c>
       <c r="C7" t="n">
-        <v>56.35</v>
+        <v>50.28</v>
       </c>
       <c r="D7" t="n">
-        <v>55.07</v>
+        <v>48.3</v>
       </c>
       <c r="E7" t="n">
-        <v>56.13</v>
+        <v>50.09</v>
       </c>
       <c r="F7" t="n">
-        <v>54.8</v>
+        <v>44.04</v>
       </c>
       <c r="G7" t="n">
-        <v>55.27</v>
+        <v>44.27</v>
       </c>
       <c r="H7" t="n">
-        <v>55.35</v>
+        <v>44.87</v>
       </c>
       <c r="I7" t="n">
-        <v>54.24</v>
+        <v>44.78</v>
       </c>
       <c r="J7" t="n">
-        <v>53.7</v>
+        <v>42.97</v>
       </c>
       <c r="K7" t="n">
-        <v>50.96</v>
+        <v>41.12</v>
       </c>
       <c r="L7" t="n">
-        <v>50.94</v>
+        <v>41.62</v>
       </c>
       <c r="M7" t="n">
-        <v>50.6</v>
+        <v>40.51</v>
+      </c>
+      <c r="N7" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="U7" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="V7" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>27.84</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147814.31</v>
+        <v>157919.09</v>
       </c>
       <c r="C8" t="n">
-        <v>148451.41</v>
+        <v>157888.41</v>
       </c>
       <c r="D8" t="n">
-        <v>157755.8</v>
+        <v>154798.39</v>
       </c>
       <c r="E8" t="n">
-        <v>157769.59</v>
+        <v>157892.35</v>
       </c>
       <c r="F8" t="n">
-        <v>158175.2</v>
+        <v>158257.3</v>
       </c>
       <c r="G8" t="n">
-        <v>158168.7</v>
+        <v>158094.77</v>
       </c>
       <c r="H8" t="n">
-        <v>158361.16</v>
+        <v>158045.05</v>
       </c>
       <c r="I8" t="n">
-        <v>158360</v>
+        <v>158345.49</v>
       </c>
       <c r="J8" t="n">
-        <v>158412.65</v>
+        <v>158278.35</v>
       </c>
       <c r="K8" t="n">
-        <v>158168.67</v>
+        <v>158040.02</v>
       </c>
       <c r="L8" t="n">
-        <v>158342.38</v>
+        <v>158619.88</v>
       </c>
       <c r="M8" t="n">
-        <v>157919.09</v>
+        <v>157886.95</v>
+      </c>
+      <c r="N8" t="n">
+        <v>157992.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>158187.61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>158113.06</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>158533.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>158429.56</v>
+      </c>
+      <c r="S8" t="n">
+        <v>157992.13</v>
+      </c>
+      <c r="T8" t="n">
+        <v>157737.22</v>
+      </c>
+      <c r="U8" t="n">
+        <v>158485.57</v>
+      </c>
+      <c r="V8" t="n">
+        <v>158021.18</v>
+      </c>
+      <c r="W8" t="n">
+        <v>158322.18</v>
+      </c>
+      <c r="X8" t="n">
+        <v>158363.88</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>157919.41</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>158018.95</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>157778.99</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279887.82</v>
+        <v>684530.74</v>
       </c>
       <c r="C9" t="n">
-        <v>279976.7</v>
+        <v>661280.46</v>
       </c>
       <c r="D9" t="n">
-        <v>279629.18</v>
+        <v>666729.0600000001</v>
       </c>
       <c r="E9" t="n">
-        <v>280203.7</v>
+        <v>669340.39</v>
       </c>
       <c r="F9" t="n">
-        <v>280505</v>
+        <v>657204.85</v>
       </c>
       <c r="G9" t="n">
-        <v>278810.51</v>
+        <v>685532.4</v>
       </c>
       <c r="H9" t="n">
-        <v>280493.77</v>
+        <v>675683.4399999999</v>
       </c>
       <c r="I9" t="n">
-        <v>671139.9</v>
+        <v>673777.29</v>
       </c>
       <c r="J9" t="n">
-        <v>691585.4</v>
+        <v>660337.4300000001</v>
       </c>
       <c r="K9" t="n">
-        <v>688994.9</v>
+        <v>603607.5</v>
       </c>
       <c r="L9" t="n">
-        <v>679432.24</v>
+        <v>613560.61</v>
       </c>
       <c r="M9" t="n">
-        <v>684530.74</v>
+        <v>600697.96</v>
+      </c>
+      <c r="N9" t="n">
+        <v>605884.98</v>
+      </c>
+      <c r="O9" t="n">
+        <v>591231.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>590644.05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>581345.6800000001</v>
+      </c>
+      <c r="R9" t="n">
+        <v>597947.4300000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>595579</v>
+      </c>
+      <c r="T9" t="n">
+        <v>593732.92</v>
+      </c>
+      <c r="U9" t="n">
+        <v>585748.55</v>
+      </c>
+      <c r="V9" t="n">
+        <v>529898.33</v>
+      </c>
+      <c r="W9" t="n">
+        <v>475435.66</v>
+      </c>
+      <c r="X9" t="n">
+        <v>483717.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>435793.17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>437368.71</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>416212.01</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12884.17</v>
+        <v>1521.64</v>
       </c>
       <c r="C10" t="n">
-        <v>12891.26</v>
+        <v>1523.22</v>
       </c>
       <c r="D10" t="n">
-        <v>12900.72</v>
+        <v>1486.35</v>
       </c>
       <c r="E10" t="n">
-        <v>12878.96</v>
+        <v>1521.86</v>
       </c>
       <c r="F10" t="n">
-        <v>12901.6</v>
+        <v>1520.02</v>
       </c>
       <c r="G10" t="n">
-        <v>12872.2</v>
+        <v>1523.11</v>
       </c>
       <c r="H10" t="n">
-        <v>12871.11</v>
+        <v>1523.48</v>
       </c>
       <c r="I10" t="n">
-        <v>12899.42</v>
+        <v>1519.87</v>
       </c>
       <c r="J10" t="n">
-        <v>12849.45</v>
+        <v>1519.92</v>
       </c>
       <c r="K10" t="n">
-        <v>1523.41</v>
+        <v>1521.58</v>
       </c>
       <c r="L10" t="n">
-        <v>1523.5</v>
+        <v>7992.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1521.64</v>
+        <v>7991.34</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7997.78</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2584.81</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2470.48</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2469.63</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2469.94</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2475.31</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2473.49</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2467.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2467.58</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2471.37</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2472.59</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2469.29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2469.43</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2369.74</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2995.62</v>
+        <v>2994.49</v>
       </c>
       <c r="C11" t="n">
-        <v>2993.91</v>
+        <v>2995.87</v>
       </c>
       <c r="D11" t="n">
-        <v>2995.63</v>
+        <v>2930.43</v>
       </c>
       <c r="E11" t="n">
-        <v>2994.06</v>
+        <v>2994.94</v>
       </c>
       <c r="F11" t="n">
-        <v>2994.45</v>
+        <v>2996.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2998.01</v>
+        <v>2996.46</v>
       </c>
       <c r="H11" t="n">
-        <v>2994.97</v>
+        <v>2993.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2994.16</v>
+        <v>2993.83</v>
       </c>
       <c r="J11" t="n">
-        <v>2997.6</v>
+        <v>2998.13</v>
       </c>
       <c r="K11" t="n">
-        <v>2996.88</v>
+        <v>2999.33</v>
       </c>
       <c r="L11" t="n">
-        <v>2997.72</v>
+        <v>2999.64</v>
       </c>
       <c r="M11" t="n">
-        <v>2994.49</v>
+        <v>2996.89</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2998.54</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2995.38</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2993.76</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2993.77</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2998.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2998.93</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2998.72</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2998</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2992.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2998.28</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2994.66</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2997.17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2995.79</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2997.3</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1979.47</v>
+        <v>1976.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1978.28</v>
+        <v>1972.88</v>
       </c>
       <c r="D12" t="n">
-        <v>1971.91</v>
+        <v>1924.46</v>
       </c>
       <c r="E12" t="n">
-        <v>1962.16</v>
+        <v>1969.74</v>
       </c>
       <c r="F12" t="n">
-        <v>1985.94</v>
+        <v>1978.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1981.03</v>
+        <v>1964.11</v>
       </c>
       <c r="H12" t="n">
-        <v>1961.4</v>
+        <v>1979.16</v>
       </c>
       <c r="I12" t="n">
-        <v>1959.73</v>
+        <v>1982.12</v>
       </c>
       <c r="J12" t="n">
-        <v>1988.22</v>
+        <v>1982.09</v>
       </c>
       <c r="K12" t="n">
-        <v>1958.41</v>
+        <v>1958.39</v>
       </c>
       <c r="L12" t="n">
-        <v>1984.26</v>
+        <v>1959.14</v>
       </c>
       <c r="M12" t="n">
-        <v>1976.05</v>
+        <v>1966.74</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1980.78</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1981.63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1981.46</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1993.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1963.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1953.37</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1952.7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1985.23</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1979.55</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1988.49</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1968.28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1979.43</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1989.66</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1985.05</v>
       </c>
     </row>
     <row r="13">
@@ -975,1375 +1507,2701 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247792.75</v>
+        <v>152805.56</v>
       </c>
       <c r="C13" t="n">
-        <v>160513.36</v>
+        <v>160678.58</v>
       </c>
       <c r="D13" t="n">
-        <v>174855.76</v>
+        <v>154937.44</v>
       </c>
       <c r="E13" t="n">
-        <v>218401.54</v>
+        <v>136936.33</v>
       </c>
       <c r="F13" t="n">
-        <v>228293.26</v>
+        <v>136691.14</v>
       </c>
       <c r="G13" t="n">
-        <v>245850.17</v>
+        <v>130083.49</v>
       </c>
       <c r="H13" t="n">
-        <v>246102.22</v>
+        <v>130482.2</v>
       </c>
       <c r="I13" t="n">
-        <v>246265.25</v>
+        <v>130136.73</v>
       </c>
       <c r="J13" t="n">
-        <v>206809.94</v>
+        <v>134002.67</v>
       </c>
       <c r="K13" t="n">
-        <v>191264.6</v>
+        <v>134270.21</v>
       </c>
       <c r="L13" t="n">
-        <v>153200.94</v>
+        <v>134301.1</v>
       </c>
       <c r="M13" t="n">
-        <v>152805.56</v>
+        <v>134418.84</v>
+      </c>
+      <c r="N13" t="n">
+        <v>134725.29</v>
+      </c>
+      <c r="O13" t="n">
+        <v>134097.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>153777.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>154504.55</v>
+      </c>
+      <c r="R13" t="n">
+        <v>92707.02</v>
+      </c>
+      <c r="S13" t="n">
+        <v>92757.53999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9336.889999999999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8532.23</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8638.51</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3378.43</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3484.69</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3303.78</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3511.15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>18904.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1145282.22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1130374.27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1130073.11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1130830.38</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1119866.17</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1112705.65</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1112767.83</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1113006.71</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1110851.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1105383.47</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1103583.42</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1104086.25</v>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>9941.530000000001</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14902.46</v>
+      </c>
+      <c r="V14" t="n">
+        <v>19132.42</v>
+      </c>
+      <c r="W14" t="n">
+        <v>18832.08</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18884.86</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>18932.4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18909.67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19015.69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17910.03</v>
+        <v>1104086.25</v>
       </c>
       <c r="C15" t="n">
-        <v>17914.94</v>
+        <v>1100045.76</v>
       </c>
       <c r="D15" t="n">
-        <v>17905.44</v>
+        <v>1069651.81</v>
       </c>
       <c r="E15" t="n">
-        <v>17908.37</v>
+        <v>1087166.25</v>
       </c>
       <c r="F15" t="n">
-        <v>17913.81</v>
+        <v>1078941.62</v>
       </c>
       <c r="G15" t="n">
-        <v>17914.3</v>
+        <v>1075076.55</v>
       </c>
       <c r="H15" t="n">
-        <v>17910.37</v>
+        <v>1074444.84</v>
       </c>
       <c r="I15" t="n">
-        <v>17908.96</v>
+        <v>1088989.42</v>
       </c>
       <c r="J15" t="n">
-        <v>17910.85</v>
+        <v>1091362.3</v>
       </c>
       <c r="K15" t="n">
-        <v>17907.26</v>
+        <v>1091995.68</v>
       </c>
       <c r="L15" t="n">
-        <v>17914.5</v>
+        <v>1076269.48</v>
       </c>
       <c r="M15" t="n">
-        <v>17914.77</v>
+        <v>1076051.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1075568.98</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1076792.91</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1075705.01</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1076573.07</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1076230.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1076141.87</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1076351.99</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1077300.54</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1076078.12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1076831.06</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1082075.88</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1080583.33</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1081862.53</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1066111.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141958.47</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>17914.77</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17908.62</v>
+      </c>
       <c r="D16" t="n">
-        <v>1142564.79</v>
+        <v>17504.14</v>
       </c>
       <c r="E16" t="n">
-        <v>1101130.55</v>
+        <v>17910.47</v>
       </c>
       <c r="F16" t="n">
-        <v>1100672.17</v>
+        <v>17909.18</v>
       </c>
       <c r="G16" t="n">
-        <v>1079344.94</v>
+        <v>17909.98</v>
       </c>
       <c r="H16" t="n">
-        <v>1078713.39</v>
+        <v>17915.47</v>
       </c>
       <c r="I16" t="n">
-        <v>1055805.73</v>
+        <v>17906.99</v>
       </c>
       <c r="J16" t="n">
-        <v>1048516.69</v>
+        <v>17903.71</v>
       </c>
       <c r="K16" t="n">
-        <v>1007460.03</v>
+        <v>17916.1</v>
       </c>
       <c r="L16" t="n">
-        <v>940428.62</v>
+        <v>17908.73</v>
       </c>
       <c r="M16" t="n">
-        <v>862163.34</v>
+        <v>17909.15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17917.52</v>
+      </c>
+      <c r="O16" t="n">
+        <v>17915.89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17909.19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>17915.64</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17913.28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>17917.62</v>
+      </c>
+      <c r="T16" t="n">
+        <v>17900.23</v>
+      </c>
+      <c r="U16" t="n">
+        <v>17914.61</v>
+      </c>
+      <c r="V16" t="n">
+        <v>17902.37</v>
+      </c>
+      <c r="W16" t="n">
+        <v>17914.72</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17916.88</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17918.59</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17910.38</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17916.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>420944.4</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>862163.34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>824159.5</v>
+      </c>
       <c r="D17" t="n">
-        <v>372373.52</v>
+        <v>805703.46</v>
       </c>
       <c r="E17" t="n">
-        <v>326259.56</v>
+        <v>825206.5600000001</v>
       </c>
       <c r="F17" t="n">
-        <v>326417.06</v>
+        <v>789831.61</v>
       </c>
       <c r="G17" t="n">
-        <v>326270.78</v>
+        <v>735046.03</v>
       </c>
       <c r="H17" t="n">
-        <v>326219.12</v>
+        <v>681334.02</v>
       </c>
       <c r="I17" t="n">
-        <v>326120.15</v>
+        <v>680518.28</v>
       </c>
       <c r="J17" t="n">
-        <v>326358.59</v>
+        <v>656287.3100000001</v>
       </c>
       <c r="K17" t="n">
-        <v>326362.89</v>
+        <v>624508.23</v>
       </c>
       <c r="L17" t="n">
-        <v>326284.59</v>
+        <v>588587.5600000001</v>
       </c>
       <c r="M17" t="n">
-        <v>326285.27</v>
+        <v>521876.21</v>
+      </c>
+      <c r="N17" t="n">
+        <v>521869.14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>443532.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>443293.08</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>443995.72</v>
+      </c>
+      <c r="R17" t="n">
+        <v>443810.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>316250.43</v>
+      </c>
+      <c r="T17" t="n">
+        <v>289948.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>289788.55</v>
+      </c>
+      <c r="V17" t="n">
+        <v>289547.66</v>
+      </c>
+      <c r="W17" t="n">
+        <v>290393.49</v>
+      </c>
+      <c r="X17" t="n">
+        <v>290255.32</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>289481.46</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>290475.74</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>290516.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75202.55</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>326285.27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>326171.02</v>
+      </c>
       <c r="D18" t="n">
-        <v>69339.19</v>
+        <v>319255.03</v>
       </c>
       <c r="E18" t="n">
-        <v>69287.64999999999</v>
+        <v>291064.28</v>
       </c>
       <c r="F18" t="n">
-        <v>69266.74000000001</v>
+        <v>291038.23</v>
       </c>
       <c r="G18" t="n">
-        <v>69176.66</v>
+        <v>291041.44</v>
       </c>
       <c r="H18" t="n">
-        <v>69254.03</v>
+        <v>283580.57</v>
       </c>
       <c r="I18" t="n">
-        <v>69301.56</v>
+        <v>283780.78</v>
       </c>
       <c r="J18" t="n">
-        <v>69184.69</v>
+        <v>284041.34</v>
       </c>
       <c r="K18" t="n">
-        <v>69310.11</v>
+        <v>283805.27</v>
       </c>
       <c r="L18" t="n">
-        <v>69202.77</v>
+        <v>283874.04</v>
       </c>
       <c r="M18" t="n">
-        <v>89251.8</v>
+        <v>283986.93</v>
+      </c>
+      <c r="N18" t="n">
+        <v>283815.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>283764.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>283636.41</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>283944.98</v>
+      </c>
+      <c r="R18" t="n">
+        <v>283804.06</v>
+      </c>
+      <c r="S18" t="n">
+        <v>157112.32</v>
+      </c>
+      <c r="T18" t="n">
+        <v>157208.88</v>
+      </c>
+      <c r="U18" t="n">
+        <v>97170.97</v>
+      </c>
+      <c r="V18" t="n">
+        <v>96734.02</v>
+      </c>
+      <c r="W18" t="n">
+        <v>96808.34</v>
+      </c>
+      <c r="X18" t="n">
+        <v>97250.61</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>97196.09</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>96714.53</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>97192.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2504.4</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>89251.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>89288.42999999999</v>
+      </c>
       <c r="D19" t="n">
-        <v>2499.29</v>
+        <v>87248.8</v>
       </c>
       <c r="E19" t="n">
-        <v>2501.31</v>
+        <v>89208.63</v>
       </c>
       <c r="F19" t="n">
-        <v>2499.43</v>
+        <v>89214.59</v>
       </c>
       <c r="G19" t="n">
-        <v>2504.24</v>
+        <v>89334.50999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2501.32</v>
+        <v>89242.67</v>
       </c>
       <c r="I19" t="n">
-        <v>2503.67</v>
+        <v>89165.66</v>
       </c>
       <c r="J19" t="n">
-        <v>2495.06</v>
+        <v>89263.45</v>
       </c>
       <c r="K19" t="n">
-        <v>2501.3</v>
+        <v>89358.82000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>2502.84</v>
+        <v>89228.72</v>
       </c>
       <c r="M19" t="n">
-        <v>2499.59</v>
+        <v>89231.53999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>89293.19</v>
+      </c>
+      <c r="O19" t="n">
+        <v>89373.84</v>
+      </c>
+      <c r="P19" t="n">
+        <v>89196.7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>89377.3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>89171.53999999999</v>
+      </c>
+      <c r="S19" t="n">
+        <v>89264.61</v>
+      </c>
+      <c r="T19" t="n">
+        <v>89322.28999999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>34763.17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>34915.88</v>
+      </c>
+      <c r="W19" t="n">
+        <v>34765.56</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34732.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23360.61</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23246.45</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>23300.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8194.18</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2499.59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2502.78</v>
+      </c>
       <c r="D20" t="n">
-        <v>8186.47</v>
+        <v>2441.44</v>
       </c>
       <c r="E20" t="n">
-        <v>8196.33</v>
+        <v>6013.51</v>
       </c>
       <c r="F20" t="n">
-        <v>8189.77</v>
+        <v>6010.6</v>
       </c>
       <c r="G20" t="n">
-        <v>8198.59</v>
+        <v>6008.55</v>
       </c>
       <c r="H20" t="n">
-        <v>8186.55</v>
+        <v>6006.01</v>
       </c>
       <c r="I20" t="n">
-        <v>8199.17</v>
+        <v>6007.74</v>
       </c>
       <c r="J20" t="n">
-        <v>8188.93</v>
+        <v>6011.25</v>
       </c>
       <c r="K20" t="n">
-        <v>8197.219999999999</v>
+        <v>6013.07</v>
       </c>
       <c r="L20" t="n">
-        <v>8189.17</v>
+        <v>6011.23</v>
       </c>
       <c r="M20" t="n">
-        <v>8187.54</v>
+        <v>6005.71</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6015.11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6010.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6010.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6009.56</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6009.98</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6013.69</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6005.95</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6013.51</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6009.98</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6005.48</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6008.42</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6013.32</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6004.32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6011.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34941.85</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>8187.54</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8190.76</v>
+      </c>
       <c r="D21" t="n">
-        <v>31387.35</v>
+        <v>8007.63</v>
       </c>
       <c r="E21" t="n">
-        <v>22168.82</v>
+        <v>13454.06</v>
       </c>
       <c r="F21" t="n">
-        <v>22306.87</v>
+        <v>13449.04</v>
       </c>
       <c r="G21" t="n">
-        <v>22157.46</v>
+        <v>13441.09</v>
       </c>
       <c r="H21" t="n">
-        <v>21987.52</v>
+        <v>13450.7</v>
       </c>
       <c r="I21" t="n">
-        <v>22149.82</v>
+        <v>13443.52</v>
       </c>
       <c r="J21" t="n">
-        <v>22296.12</v>
+        <v>13444.35</v>
       </c>
       <c r="K21" t="n">
-        <v>22168.21</v>
+        <v>13453.7</v>
       </c>
       <c r="L21" t="n">
-        <v>22221.52</v>
+        <v>13447.7</v>
       </c>
       <c r="M21" t="n">
-        <v>51140.15</v>
+        <v>13452.26</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13447.36</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13443.28</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13451.56</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>13454.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13455.14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13457.05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13450.65</v>
+      </c>
+      <c r="U21" t="n">
+        <v>13448.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>13451.6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13454.7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13450.83</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13446.89</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13447.35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13454.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>442216.7</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>51140.15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>51225.05</v>
+      </c>
       <c r="D22" t="n">
-        <v>416460.79</v>
+        <v>49787.52</v>
       </c>
       <c r="E22" t="n">
-        <v>405384.12</v>
+        <v>51258.51</v>
       </c>
       <c r="F22" t="n">
-        <v>396226.89</v>
+        <v>50970.09</v>
       </c>
       <c r="G22" t="n">
-        <v>356215.79</v>
+        <v>50788.27</v>
       </c>
       <c r="H22" t="n">
-        <v>356698.65</v>
+        <v>50793.64</v>
       </c>
       <c r="I22" t="n">
-        <v>355679.84</v>
+        <v>51063.08</v>
       </c>
       <c r="J22" t="n">
-        <v>355957.56</v>
+        <v>51056.18</v>
       </c>
       <c r="K22" t="n">
-        <v>356656.01</v>
+        <v>51099.71</v>
       </c>
       <c r="L22" t="n">
-        <v>356351.14</v>
+        <v>50976.8</v>
       </c>
       <c r="M22" t="n">
-        <v>380281.8</v>
+        <v>51344.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>50921.47</v>
+      </c>
+      <c r="O22" t="n">
+        <v>51049.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>50922.48</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>50822.37</v>
+      </c>
+      <c r="R22" t="n">
+        <v>50917.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>51121.18</v>
+      </c>
+      <c r="T22" t="n">
+        <v>51137.92</v>
+      </c>
+      <c r="U22" t="n">
+        <v>50775.84</v>
+      </c>
+      <c r="V22" t="n">
+        <v>50736.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>51351.68</v>
+      </c>
+      <c r="X22" t="n">
+        <v>51091.92</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>50831.87</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>50958.17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51081.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106360.7</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>380281.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>380620.77</v>
+      </c>
       <c r="D23" t="n">
-        <v>106771.35</v>
+        <v>371681.68</v>
       </c>
       <c r="E23" t="n">
-        <v>106848.3</v>
+        <v>433120.82</v>
       </c>
       <c r="F23" t="n">
-        <v>106040.47</v>
+        <v>433177.02</v>
       </c>
       <c r="G23" t="n">
-        <v>86426.48</v>
+        <v>433113.87</v>
       </c>
       <c r="H23" t="n">
-        <v>86086.09</v>
+        <v>433282.81</v>
       </c>
       <c r="I23" t="n">
-        <v>86440.96000000001</v>
+        <v>432811.18</v>
       </c>
       <c r="J23" t="n">
-        <v>86504.3</v>
+        <v>433138.71</v>
       </c>
       <c r="K23" t="n">
-        <v>86800.64</v>
+        <v>432742.3</v>
       </c>
       <c r="L23" t="n">
-        <v>86484.94</v>
+        <v>432395.34</v>
       </c>
       <c r="M23" t="n">
-        <v>86979.92</v>
+        <v>433006.9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>432537.12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>433331.78</v>
+      </c>
+      <c r="P23" t="n">
+        <v>432905.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>433109.36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>432833.15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>432516.9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>432888.11</v>
+      </c>
+      <c r="U23" t="n">
+        <v>343054.53</v>
+      </c>
+      <c r="V23" t="n">
+        <v>342909.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>343837.75</v>
+      </c>
+      <c r="X23" t="n">
+        <v>344044.02</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>343187.07</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>342930.65</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>342870.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>234004.44</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>86979.92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>86545.74000000001</v>
+      </c>
       <c r="D24" t="n">
-        <v>247231.47</v>
+        <v>85020.71000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>266926.7</v>
+        <v>135259.97</v>
       </c>
       <c r="F24" t="n">
-        <v>275353.71</v>
+        <v>134899.18</v>
       </c>
       <c r="G24" t="n">
-        <v>274006.54</v>
+        <v>134712.29</v>
       </c>
       <c r="H24" t="n">
-        <v>273733.35</v>
+        <v>134880.29</v>
       </c>
       <c r="I24" t="n">
-        <v>264553.94</v>
+        <v>134923.46</v>
       </c>
       <c r="J24" t="n">
-        <v>262515.82</v>
+        <v>134675.87</v>
       </c>
       <c r="K24" t="n">
-        <v>254526.22</v>
+        <v>134687.94</v>
       </c>
       <c r="L24" t="n">
-        <v>254417.45</v>
+        <v>134579.67</v>
       </c>
       <c r="M24" t="n">
-        <v>254712.54</v>
+        <v>135251.63</v>
+      </c>
+      <c r="N24" t="n">
+        <v>119992.48</v>
+      </c>
+      <c r="O24" t="n">
+        <v>120087.48</v>
+      </c>
+      <c r="P24" t="n">
+        <v>120310.09</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>120292.16</v>
+      </c>
+      <c r="R24" t="n">
+        <v>120195.99</v>
+      </c>
+      <c r="S24" t="n">
+        <v>119506.98</v>
+      </c>
+      <c r="T24" t="n">
+        <v>120238.31</v>
+      </c>
+      <c r="U24" t="n">
+        <v>119664.74</v>
+      </c>
+      <c r="V24" t="n">
+        <v>119924.12</v>
+      </c>
+      <c r="W24" t="n">
+        <v>120380.86</v>
+      </c>
+      <c r="X24" t="n">
+        <v>120084.75</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>120086.58</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>120069.28</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>119579.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230700.79</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>254712.54</v>
+      </c>
+      <c r="C25" t="n">
+        <v>254674.97</v>
+      </c>
       <c r="D25" t="n">
-        <v>249903.77</v>
+        <v>248947.06</v>
       </c>
       <c r="E25" t="n">
-        <v>255423.76</v>
+        <v>254821.61</v>
       </c>
       <c r="F25" t="n">
-        <v>254617.57</v>
+        <v>257746.3</v>
       </c>
       <c r="G25" t="n">
-        <v>251669.71</v>
+        <v>261326.26</v>
       </c>
       <c r="H25" t="n">
-        <v>251535.6</v>
+        <v>261351.63</v>
       </c>
       <c r="I25" t="n">
-        <v>251193.28</v>
+        <v>266412.73</v>
       </c>
       <c r="J25" t="n">
-        <v>245583.09</v>
+        <v>284262.46</v>
       </c>
       <c r="K25" t="n">
-        <v>245420.03</v>
+        <v>288697.96</v>
       </c>
       <c r="L25" t="n">
-        <v>240406.76</v>
+        <v>282158.45</v>
       </c>
       <c r="M25" t="n">
-        <v>240315.39</v>
-      </c>
+        <v>281637.63</v>
+      </c>
+      <c r="N25" t="n">
+        <v>281879.85</v>
+      </c>
+      <c r="O25" t="n">
+        <v>296135.74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>300160.65</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>246007.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>115254.63</v>
+      </c>
+      <c r="S25" t="n">
+        <v>46947.43</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>249184.42</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>240315.39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>240551.73</v>
+      </c>
       <c r="D26" t="n">
-        <v>222556.7</v>
+        <v>235080.53</v>
       </c>
       <c r="E26" t="n">
-        <v>240484.4</v>
+        <v>235140.3</v>
       </c>
       <c r="F26" t="n">
-        <v>237102.39</v>
+        <v>241524.17</v>
       </c>
       <c r="G26" t="n">
-        <v>236480.52</v>
+        <v>245362.58</v>
       </c>
       <c r="H26" t="n">
-        <v>236843.68</v>
+        <v>245932.36</v>
       </c>
       <c r="I26" t="n">
-        <v>234171.17</v>
+        <v>245653.5</v>
       </c>
       <c r="J26" t="n">
-        <v>234094.1</v>
+        <v>279069.96</v>
       </c>
       <c r="K26" t="n">
-        <v>234182.83</v>
+        <v>279125.69</v>
       </c>
       <c r="L26" t="n">
-        <v>231129.26</v>
+        <v>278765.28</v>
       </c>
       <c r="M26" t="n">
-        <v>225749.32</v>
-      </c>
+        <v>278954.44</v>
+      </c>
+      <c r="N26" t="n">
+        <v>284763.15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>289251.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>301805.77</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>243036.14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>111276.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>43919.81</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206464.83</v>
+        <v>225749.32</v>
       </c>
       <c r="C27" t="n">
-        <v>216929.81</v>
+        <v>226088.25</v>
       </c>
       <c r="D27" t="n">
-        <v>223521.83</v>
+        <v>219131.89</v>
       </c>
       <c r="E27" t="n">
-        <v>234847.32</v>
+        <v>218900.82</v>
       </c>
       <c r="F27" t="n">
-        <v>236883.28</v>
+        <v>232956.65</v>
       </c>
       <c r="G27" t="n">
-        <v>237343.79</v>
+        <v>240387.68</v>
       </c>
       <c r="H27" t="n">
-        <v>237073.42</v>
+        <v>240400.3</v>
       </c>
       <c r="I27" t="n">
-        <v>237193.95</v>
+        <v>245388.49</v>
       </c>
       <c r="J27" t="n">
-        <v>237330.03</v>
+        <v>262496.03</v>
       </c>
       <c r="K27" t="n">
-        <v>236990.72</v>
+        <v>267357.84</v>
       </c>
       <c r="L27" t="n">
-        <v>231953.39</v>
+        <v>270008.67</v>
       </c>
       <c r="M27" t="n">
-        <v>232357.23</v>
+        <v>288152.61</v>
+      </c>
+      <c r="N27" t="n">
+        <v>287929.02</v>
+      </c>
+      <c r="O27" t="n">
+        <v>291118.9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>297960.27</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>319190.23</v>
+      </c>
+      <c r="R27" t="n">
+        <v>331249.87</v>
+      </c>
+      <c r="S27" t="n">
+        <v>332219.58</v>
+      </c>
+      <c r="T27" t="n">
+        <v>332401.96</v>
+      </c>
+      <c r="U27" t="n">
+        <v>325793.74</v>
+      </c>
+      <c r="V27" t="n">
+        <v>348252.63</v>
+      </c>
+      <c r="W27" t="n">
+        <v>351224.75</v>
+      </c>
+      <c r="X27" t="n">
+        <v>359755.68</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>328612.57</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>337856.35</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>315613.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2073702.77</v>
+        <v>232357.23</v>
       </c>
       <c r="C28" t="n">
-        <v>2149584.31</v>
+        <v>226897.02</v>
       </c>
       <c r="D28" t="n">
-        <v>2149944.22</v>
+        <v>222179.38</v>
       </c>
       <c r="E28" t="n">
-        <v>2150956.97</v>
+        <v>211426.21</v>
       </c>
       <c r="F28" t="n">
-        <v>2150095.81</v>
+        <v>214494.15</v>
       </c>
       <c r="G28" t="n">
-        <v>2150838.78</v>
+        <v>210400.51</v>
       </c>
       <c r="H28" t="n">
-        <v>1500027.92</v>
+        <v>210047.19</v>
       </c>
       <c r="I28" t="n">
-        <v>1498851.98</v>
+        <v>216080.7</v>
       </c>
       <c r="J28" t="n">
-        <v>1499868.97</v>
+        <v>281130.41</v>
       </c>
       <c r="K28" t="n">
-        <v>1499745.44</v>
+        <v>280534.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1498821.49</v>
+        <v>280961.98</v>
       </c>
       <c r="M28" t="n">
-        <v>1499194.09</v>
+        <v>280468.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>285184.91</v>
+      </c>
+      <c r="O28" t="n">
+        <v>285045.18</v>
+      </c>
+      <c r="P28" t="n">
+        <v>291673.81</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>307345.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>317798.21</v>
+      </c>
+      <c r="S28" t="n">
+        <v>315117.77</v>
+      </c>
+      <c r="T28" t="n">
+        <v>314411.1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>315220.54</v>
+      </c>
+      <c r="V28" t="n">
+        <v>317824.27</v>
+      </c>
+      <c r="W28" t="n">
+        <v>322069.24</v>
+      </c>
+      <c r="X28" t="n">
+        <v>329461.15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>321959.05</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>322262.76</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>317968.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40034.88</v>
+        <v>1499194.09</v>
       </c>
       <c r="C29" t="n">
-        <v>39995.45</v>
+        <v>1501036.4</v>
       </c>
       <c r="D29" t="n">
-        <v>40036.92</v>
+        <v>1465480.19</v>
       </c>
       <c r="E29" t="n">
-        <v>39989.09</v>
+        <v>1499213.33</v>
       </c>
       <c r="F29" t="n">
-        <v>39989.87</v>
+        <v>1500035.75</v>
       </c>
       <c r="G29" t="n">
-        <v>40012.07</v>
+        <v>1499639.85</v>
       </c>
       <c r="H29" t="n">
-        <v>40027.99</v>
+        <v>1799398.29</v>
       </c>
       <c r="I29" t="n">
-        <v>39954.95</v>
+        <v>1798536.74</v>
       </c>
       <c r="J29" t="n">
-        <v>39958.51</v>
+        <v>2101447.53</v>
       </c>
       <c r="K29" t="n">
-        <v>40029.99</v>
+        <v>2099846</v>
       </c>
       <c r="L29" t="n">
-        <v>40011.86</v>
+        <v>2100861.06</v>
       </c>
       <c r="M29" t="n">
-        <v>40027.86</v>
-      </c>
+        <v>1773918.55</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5291.3</v>
+        <v>40027.86</v>
       </c>
       <c r="C30" t="n">
-        <v>5304.06</v>
+        <v>39968.48</v>
       </c>
       <c r="D30" t="n">
-        <v>5311.18</v>
+        <v>39084.77</v>
       </c>
       <c r="E30" t="n">
-        <v>5302.68</v>
+        <v>39982.94</v>
       </c>
       <c r="F30" t="n">
-        <v>5292.59</v>
+        <v>39976.61</v>
       </c>
       <c r="G30" t="n">
-        <v>5309.89</v>
+        <v>40011.15</v>
       </c>
       <c r="H30" t="n">
-        <v>5295.59</v>
+        <v>39962.42</v>
       </c>
       <c r="I30" t="n">
-        <v>5295.44</v>
+        <v>40006.23</v>
       </c>
       <c r="J30" t="n">
-        <v>5298.97</v>
+        <v>39975.62</v>
       </c>
       <c r="K30" t="n">
-        <v>5301.89</v>
+        <v>40034.34</v>
       </c>
       <c r="L30" t="n">
-        <v>5295.86</v>
+        <v>39971.45</v>
       </c>
       <c r="M30" t="n">
-        <v>5304.51</v>
+        <v>40057.42</v>
+      </c>
+      <c r="N30" t="n">
+        <v>40005.89</v>
+      </c>
+      <c r="O30" t="n">
+        <v>39932.16</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40026.35</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>40049.26</v>
+      </c>
+      <c r="R30" t="n">
+        <v>40049.15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>39949.83</v>
+      </c>
+      <c r="T30" t="n">
+        <v>39981.42</v>
+      </c>
+      <c r="U30" t="n">
+        <v>39960.62</v>
+      </c>
+      <c r="V30" t="n">
+        <v>39968.42</v>
+      </c>
+      <c r="W30" t="n">
+        <v>40054.38</v>
+      </c>
+      <c r="X30" t="n">
+        <v>40058.35</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>39964.71</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>40001.17</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>39987.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157899.35</v>
+        <v>5304.51</v>
       </c>
       <c r="C31" t="n">
-        <v>158126.71</v>
+        <v>5296.21</v>
       </c>
       <c r="D31" t="n">
-        <v>153050.14</v>
+        <v>5193.51</v>
       </c>
       <c r="E31" t="n">
-        <v>152830.8</v>
+        <v>5295.18</v>
       </c>
       <c r="F31" t="n">
-        <v>152895.13</v>
+        <v>5289.2</v>
       </c>
       <c r="G31" t="n">
-        <v>148092.28</v>
+        <v>5295.53</v>
       </c>
       <c r="H31" t="n">
-        <v>147861.6</v>
+        <v>5298.76</v>
       </c>
       <c r="I31" t="n">
-        <v>128056.41</v>
+        <v>5286.86</v>
       </c>
       <c r="J31" t="n">
-        <v>123141.15</v>
+        <v>5317.36</v>
       </c>
       <c r="K31" t="n">
-        <v>117982.62</v>
+        <v>5300.14</v>
       </c>
       <c r="L31" t="n">
-        <v>117900.24</v>
+        <v>5317.33</v>
       </c>
       <c r="M31" t="n">
-        <v>118035.71</v>
+        <v>5287.54</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5293.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5293.46</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5285.02</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5317.01</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5293.19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5290.49</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5301.57</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5293.4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5288.34</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5293.08</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5303.66</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5305.94</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>5289.56</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5295.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300647.63</v>
+        <v>118035.71</v>
       </c>
       <c r="C32" t="n">
-        <v>295801.43</v>
+        <v>112884</v>
       </c>
       <c r="D32" t="n">
-        <v>250275.02</v>
+        <v>110356.73</v>
       </c>
       <c r="E32" t="n">
-        <v>250561.67</v>
+        <v>112954.89</v>
       </c>
       <c r="F32" t="n">
-        <v>250643.6</v>
+        <v>113035.36</v>
       </c>
       <c r="G32" t="n">
-        <v>230543.28</v>
+        <v>113085.91</v>
       </c>
       <c r="H32" t="n">
-        <v>230325.57</v>
+        <v>113100.99</v>
       </c>
       <c r="I32" t="n">
-        <v>220569.37</v>
+        <v>112881.54</v>
       </c>
       <c r="J32" t="n">
-        <v>215472.14</v>
+        <v>113000.89</v>
       </c>
       <c r="K32" t="n">
-        <v>215397.74</v>
+        <v>112936.67</v>
       </c>
       <c r="L32" t="n">
-        <v>191226.5</v>
+        <v>113137.35</v>
       </c>
       <c r="M32" t="n">
-        <v>186117.43</v>
+        <v>112955.49</v>
+      </c>
+      <c r="N32" t="n">
+        <v>112875.08</v>
+      </c>
+      <c r="O32" t="n">
+        <v>113105.86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>113084.93</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>112980.29</v>
+      </c>
+      <c r="R32" t="n">
+        <v>112924.46</v>
+      </c>
+      <c r="S32" t="n">
+        <v>113088.47</v>
+      </c>
+      <c r="T32" t="n">
+        <v>113073.84</v>
+      </c>
+      <c r="U32" t="n">
+        <v>113153.09</v>
+      </c>
+      <c r="V32" t="n">
+        <v>112861.02</v>
+      </c>
+      <c r="W32" t="n">
+        <v>113140.8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>117925.25</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>118180.76</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>117877.52</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>117839.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41744.48</v>
+        <v>186117.43</v>
       </c>
       <c r="C33" t="n">
-        <v>43603.61</v>
+        <v>181475.65</v>
       </c>
       <c r="D33" t="n">
-        <v>56122.92</v>
+        <v>177267.23</v>
       </c>
       <c r="E33" t="n">
-        <v>58730.41</v>
+        <v>181124.46</v>
       </c>
       <c r="F33" t="n">
-        <v>58143.89</v>
+        <v>181432.12</v>
       </c>
       <c r="G33" t="n">
-        <v>58185.04</v>
+        <v>186227.76</v>
       </c>
       <c r="H33" t="n">
-        <v>69134.8</v>
+        <v>186225.56</v>
       </c>
       <c r="I33" t="n">
-        <v>69012.81</v>
+        <v>186246.83</v>
       </c>
       <c r="J33" t="n">
-        <v>69056.47</v>
+        <v>186054.75</v>
       </c>
       <c r="K33" t="n">
-        <v>69160.62</v>
+        <v>186000.61</v>
       </c>
       <c r="L33" t="n">
-        <v>68586.03</v>
+        <v>191204.4</v>
       </c>
       <c r="M33" t="n">
-        <v>60413.67</v>
+        <v>191032.8</v>
+      </c>
+      <c r="N33" t="n">
+        <v>191583.52</v>
+      </c>
+      <c r="O33" t="n">
+        <v>191224.54</v>
+      </c>
+      <c r="P33" t="n">
+        <v>190959.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>191225.77</v>
+      </c>
+      <c r="R33" t="n">
+        <v>191518.3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>191496.41</v>
+      </c>
+      <c r="T33" t="n">
+        <v>191123.29</v>
+      </c>
+      <c r="U33" t="n">
+        <v>190986.52</v>
+      </c>
+      <c r="V33" t="n">
+        <v>191115.27</v>
+      </c>
+      <c r="W33" t="n">
+        <v>191076.75</v>
+      </c>
+      <c r="X33" t="n">
+        <v>191161.36</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>186561.05</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>185972.03</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>186067.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3896.97</v>
+        <v>60413.67</v>
       </c>
       <c r="C34" t="n">
-        <v>3897.54</v>
+        <v>60464.68</v>
       </c>
       <c r="D34" t="n">
-        <v>4431.63</v>
+        <v>57414.09</v>
       </c>
       <c r="E34" t="n">
-        <v>4425.64</v>
+        <v>58100.95</v>
       </c>
       <c r="F34" t="n">
-        <v>4438</v>
+        <v>59455.11</v>
       </c>
       <c r="G34" t="n">
-        <v>4432.5</v>
+        <v>62867.95</v>
       </c>
       <c r="H34" t="n">
-        <v>4443.12</v>
+        <v>64649.87</v>
       </c>
       <c r="I34" t="n">
-        <v>4431.4</v>
+        <v>66912.74000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>4430.14</v>
+        <v>68022.89</v>
       </c>
       <c r="K34" t="n">
-        <v>4441.67</v>
+        <v>71442.89999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>4429.06</v>
+        <v>71572.82000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>4439.87</v>
+        <v>82940.61</v>
+      </c>
+      <c r="N34" t="n">
+        <v>82984.75</v>
+      </c>
+      <c r="O34" t="n">
+        <v>85256.21000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>87318.11</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>87163.61</v>
+      </c>
+      <c r="R34" t="n">
+        <v>87212.78</v>
+      </c>
+      <c r="S34" t="n">
+        <v>87171.23</v>
+      </c>
+      <c r="T34" t="n">
+        <v>76223</v>
+      </c>
+      <c r="U34" t="n">
+        <v>66400.22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>64851.29</v>
+      </c>
+      <c r="W34" t="n">
+        <v>63590.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>66172.46000000001</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>53646.14</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>58647.82</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>58817.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37560.76</v>
+        <v>4439.87</v>
       </c>
       <c r="C35" t="n">
-        <v>37467.97</v>
+        <v>4157.09</v>
       </c>
       <c r="D35" t="n">
-        <v>37460.79</v>
+        <v>4062.52</v>
       </c>
       <c r="E35" t="n">
-        <v>37533.8</v>
+        <v>4148.8</v>
       </c>
       <c r="F35" t="n">
-        <v>37488.69</v>
+        <v>4159.35</v>
       </c>
       <c r="G35" t="n">
-        <v>37487.56</v>
+        <v>4155.34</v>
       </c>
       <c r="H35" t="n">
-        <v>37503.73</v>
+        <v>4155.47</v>
       </c>
       <c r="I35" t="n">
-        <v>37560.82</v>
+        <v>4159.73</v>
       </c>
       <c r="J35" t="n">
-        <v>30026.52</v>
+        <v>4148.71</v>
       </c>
       <c r="K35" t="n">
-        <v>30046.97</v>
+        <v>4162.41</v>
       </c>
       <c r="L35" t="n">
-        <v>30013.22</v>
+        <v>4146.28</v>
       </c>
       <c r="M35" t="n">
-        <v>30045.65</v>
-      </c>
+        <v>4158.21</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4163.91</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4156.76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4158.06</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4147.59</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4161.17</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4147.38</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4158.17</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4145.27</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4149.46</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4159.3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3917.46</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79675.07000000001</v>
+        <v>30045.65</v>
       </c>
       <c r="C36" t="n">
-        <v>79731.38</v>
+        <v>30013.17</v>
       </c>
       <c r="D36" t="n">
-        <v>79744.92999999999</v>
+        <v>29319.63</v>
       </c>
       <c r="E36" t="n">
-        <v>79684.23</v>
+        <v>29942.27</v>
       </c>
       <c r="F36" t="n">
-        <v>79708.75999999999</v>
+        <v>30021.87</v>
       </c>
       <c r="G36" t="n">
-        <v>79718.58</v>
+        <v>30095.34</v>
       </c>
       <c r="H36" t="n">
-        <v>79685.37</v>
+        <v>29958.04</v>
       </c>
       <c r="I36" t="n">
-        <v>79699.89</v>
+        <v>53964.97</v>
       </c>
       <c r="J36" t="n">
-        <v>79705.13</v>
+        <v>57048.35</v>
       </c>
       <c r="K36" t="n">
-        <v>79723.25999999999</v>
+        <v>57066.93</v>
       </c>
       <c r="L36" t="n">
-        <v>79748.44</v>
+        <v>63560.67</v>
       </c>
       <c r="M36" t="n">
-        <v>79725.00999999999</v>
+        <v>77497.77</v>
+      </c>
+      <c r="N36" t="n">
+        <v>73907.82000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>77035.73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>77064.8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>76977.16</v>
+      </c>
+      <c r="R36" t="n">
+        <v>76884.23</v>
+      </c>
+      <c r="S36" t="n">
+        <v>76983.45</v>
+      </c>
+      <c r="T36" t="n">
+        <v>77024</v>
+      </c>
+      <c r="U36" t="n">
+        <v>71795.07000000001</v>
+      </c>
+      <c r="V36" t="n">
+        <v>77081.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>78298.03</v>
+      </c>
+      <c r="X36" t="n">
+        <v>78816.37</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>79794.67</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>77982.7</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>75996.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35003.74</v>
+        <v>79725.00999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>35010.68</v>
+        <v>79764.32000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>34996.82</v>
+        <v>77973.47</v>
       </c>
       <c r="E37" t="n">
-        <v>34979.03</v>
+        <v>79685.89</v>
       </c>
       <c r="F37" t="n">
-        <v>32522.61</v>
+        <v>79672.13</v>
       </c>
       <c r="G37" t="n">
-        <v>32556.72</v>
+        <v>79677.14</v>
       </c>
       <c r="H37" t="n">
-        <v>32548.36</v>
+        <v>79696.11</v>
       </c>
       <c r="I37" t="n">
-        <v>32503.21</v>
+        <v>79680.96000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>32537.01</v>
+        <v>79707.89</v>
       </c>
       <c r="K37" t="n">
-        <v>32482.99</v>
+        <v>79729.02</v>
       </c>
       <c r="L37" t="n">
-        <v>32500.58</v>
+        <v>79692.50999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>32493.76</v>
+        <v>79765.50999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>79666.88</v>
+      </c>
+      <c r="O37" t="n">
+        <v>79752.62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>79777.17</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>84300.39</v>
+      </c>
+      <c r="R37" t="n">
+        <v>84304.39999999999</v>
+      </c>
+      <c r="S37" t="n">
+        <v>84156.56</v>
+      </c>
+      <c r="T37" t="n">
+        <v>84195.81</v>
+      </c>
+      <c r="U37" t="n">
+        <v>84302.67</v>
+      </c>
+      <c r="V37" t="n">
+        <v>84253.37</v>
+      </c>
+      <c r="W37" t="n">
+        <v>84300.78</v>
+      </c>
+      <c r="X37" t="n">
+        <v>84258.19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>84257.10000000001</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>84248.31</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>84293.96000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85115.45</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>32493.76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>32556.78</v>
+      </c>
       <c r="D38" t="n">
-        <v>85134.83</v>
+        <v>31831.84</v>
       </c>
       <c r="E38" t="n">
-        <v>85070.00999999999</v>
+        <v>36345.61</v>
       </c>
       <c r="F38" t="n">
-        <v>84920.62</v>
+        <v>36341.06</v>
       </c>
       <c r="G38" t="n">
-        <v>85022.81</v>
+        <v>41440.09</v>
       </c>
       <c r="H38" t="n">
-        <v>85118.53</v>
+        <v>41377.66</v>
       </c>
       <c r="I38" t="n">
-        <v>84937.98</v>
+        <v>41442.05</v>
       </c>
       <c r="J38" t="n">
-        <v>84860.36</v>
+        <v>41464.72</v>
       </c>
       <c r="K38" t="n">
-        <v>85063.55</v>
+        <v>41420.87</v>
       </c>
       <c r="L38" t="n">
-        <v>85105.91</v>
+        <v>41400.82</v>
       </c>
       <c r="M38" t="n">
-        <v>85111.58</v>
+        <v>41399.23</v>
+      </c>
+      <c r="N38" t="n">
+        <v>41428.42</v>
+      </c>
+      <c r="O38" t="n">
+        <v>41385.53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>41386.07</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>41447.95</v>
+      </c>
+      <c r="R38" t="n">
+        <v>41475.25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>37779.51</v>
+      </c>
+      <c r="T38" t="n">
+        <v>32001.51</v>
+      </c>
+      <c r="U38" t="n">
+        <v>32013.57</v>
+      </c>
+      <c r="V38" t="n">
+        <v>32038.67</v>
+      </c>
+      <c r="W38" t="n">
+        <v>31767.9</v>
+      </c>
+      <c r="X38" t="n">
+        <v>31713.37</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>31741.73</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>27610.09</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>27573.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>129626.95</v>
+        <v>85111.58</v>
       </c>
       <c r="C39" t="n">
-        <v>129482.29</v>
+        <v>85031.91</v>
       </c>
       <c r="D39" t="n">
-        <v>129325.15</v>
+        <v>83041.95</v>
       </c>
       <c r="E39" t="n">
-        <v>202186.47</v>
+        <v>75699.85000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>202404.45</v>
+        <v>75781.64</v>
       </c>
       <c r="G39" t="n">
-        <v>202161.98</v>
+        <v>75825.11</v>
       </c>
       <c r="H39" t="n">
-        <v>202500.08</v>
+        <v>75976.12</v>
       </c>
       <c r="I39" t="n">
-        <v>202532.8</v>
+        <v>113791.93</v>
       </c>
       <c r="J39" t="n">
-        <v>202177.14</v>
+        <v>113654.12</v>
       </c>
       <c r="K39" t="n">
-        <v>202120.49</v>
+        <v>113788.98</v>
       </c>
       <c r="L39" t="n">
-        <v>202193.86</v>
+        <v>113717.03</v>
       </c>
       <c r="M39" t="n">
-        <v>202300.94</v>
+        <v>113845.63</v>
+      </c>
+      <c r="N39" t="n">
+        <v>113748.54</v>
+      </c>
+      <c r="O39" t="n">
+        <v>113931.19</v>
+      </c>
+      <c r="P39" t="n">
+        <v>113635.87</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>113967.39</v>
+      </c>
+      <c r="R39" t="n">
+        <v>127571.26</v>
+      </c>
+      <c r="S39" t="n">
+        <v>127593.04</v>
+      </c>
+      <c r="T39" t="n">
+        <v>127607.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>127656.42</v>
+      </c>
+      <c r="V39" t="n">
+        <v>127524.07</v>
+      </c>
+      <c r="W39" t="n">
+        <v>163382.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>163801.41</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>163703.79</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>163397.23</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>163719.57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69373</v>
+        <v>202300.94</v>
       </c>
       <c r="C40" t="n">
-        <v>69275.31</v>
+        <v>202496.09</v>
       </c>
       <c r="D40" t="n">
-        <v>79302.22</v>
+        <v>197594.4</v>
       </c>
       <c r="E40" t="n">
-        <v>79325.52</v>
+        <v>202531.3</v>
       </c>
       <c r="F40" t="n">
-        <v>79356.17999999999</v>
+        <v>202403.82</v>
       </c>
       <c r="G40" t="n">
-        <v>79371.44</v>
+        <v>202173.08</v>
       </c>
       <c r="H40" t="n">
-        <v>83412.08</v>
+        <v>202238.53</v>
       </c>
       <c r="I40" t="n">
-        <v>83422.96000000001</v>
+        <v>287417.77</v>
       </c>
       <c r="J40" t="n">
-        <v>88262.91</v>
+        <v>287293.59</v>
       </c>
       <c r="K40" t="n">
-        <v>80299.03999999999</v>
+        <v>287262.57</v>
       </c>
       <c r="L40" t="n">
-        <v>86257.33</v>
+        <v>287527.37</v>
       </c>
       <c r="M40" t="n">
-        <v>86414.69</v>
+        <v>287900.9</v>
+      </c>
+      <c r="N40" t="n">
+        <v>287135.31</v>
+      </c>
+      <c r="O40" t="n">
+        <v>287602.86</v>
+      </c>
+      <c r="P40" t="n">
+        <v>287424.86</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>287875.84</v>
+      </c>
+      <c r="R40" t="n">
+        <v>287468.99</v>
+      </c>
+      <c r="S40" t="n">
+        <v>287792.76</v>
+      </c>
+      <c r="T40" t="n">
+        <v>287482.57</v>
+      </c>
+      <c r="U40" t="n">
+        <v>287803.82</v>
+      </c>
+      <c r="V40" t="n">
+        <v>339908</v>
+      </c>
+      <c r="W40" t="n">
+        <v>362539.11</v>
+      </c>
+      <c r="X40" t="n">
+        <v>362995.35</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>362752.55</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>362725.72</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>362157.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117022.34</v>
+        <v>86414.69</v>
       </c>
       <c r="C41" t="n">
-        <v>116859.7</v>
+        <v>86334.14999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>116885.8</v>
+        <v>84416.27</v>
       </c>
       <c r="E41" t="n">
-        <v>116890.29</v>
+        <v>86246.39</v>
       </c>
       <c r="F41" t="n">
-        <v>116800.49</v>
+        <v>86249.28</v>
       </c>
       <c r="G41" t="n">
-        <v>117066.31</v>
+        <v>92796.91</v>
       </c>
       <c r="H41" t="n">
-        <v>116871.23</v>
+        <v>92782.81</v>
       </c>
       <c r="I41" t="n">
-        <v>117073.57</v>
+        <v>105775.48</v>
       </c>
       <c r="J41" t="n">
-        <v>117041.93</v>
+        <v>113944.92</v>
       </c>
       <c r="K41" t="n">
-        <v>116879.83</v>
+        <v>115222.71</v>
       </c>
       <c r="L41" t="n">
-        <v>116875.96</v>
+        <v>119391.26</v>
       </c>
       <c r="M41" t="n">
-        <v>116933.27</v>
+        <v>129314.41</v>
+      </c>
+      <c r="N41" t="n">
+        <v>134374.45</v>
+      </c>
+      <c r="O41" t="n">
+        <v>136902.45</v>
+      </c>
+      <c r="P41" t="n">
+        <v>122657.29</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>140610.07</v>
+      </c>
+      <c r="R41" t="n">
+        <v>140815.15</v>
+      </c>
+      <c r="S41" t="n">
+        <v>140552.73</v>
+      </c>
+      <c r="T41" t="n">
+        <v>140692.97</v>
+      </c>
+      <c r="U41" t="n">
+        <v>115497.1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>115826.52</v>
+      </c>
+      <c r="W41" t="n">
+        <v>115515.27</v>
+      </c>
+      <c r="X41" t="n">
+        <v>127671.78</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>127523.28</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>121682.93</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>121521.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82812.8</v>
+        <v>116933.27</v>
       </c>
       <c r="C42" t="n">
-        <v>82783.25</v>
+        <v>117012.91</v>
       </c>
       <c r="D42" t="n">
-        <v>77949.88</v>
+        <v>114200.21</v>
       </c>
       <c r="E42" t="n">
-        <v>76528.53</v>
+        <v>130347.7</v>
       </c>
       <c r="F42" t="n">
-        <v>82599.48</v>
+        <v>130487.74</v>
       </c>
       <c r="G42" t="n">
-        <v>83602.53999999999</v>
+        <v>148333.93</v>
       </c>
       <c r="H42" t="n">
-        <v>83861.5</v>
+        <v>148481</v>
       </c>
       <c r="I42" t="n">
-        <v>83798.13</v>
+        <v>148223.5</v>
       </c>
       <c r="J42" t="n">
-        <v>83807.59</v>
+        <v>148510.05</v>
       </c>
       <c r="K42" t="n">
-        <v>83804.84</v>
+        <v>148293.21</v>
       </c>
       <c r="L42" t="n">
-        <v>83804.23</v>
+        <v>148317.72</v>
       </c>
       <c r="M42" t="n">
-        <v>81305.96000000001</v>
+        <v>148215.94</v>
+      </c>
+      <c r="N42" t="n">
+        <v>148549.88</v>
+      </c>
+      <c r="O42" t="n">
+        <v>130190.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>120234</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>120225.63</v>
+      </c>
+      <c r="R42" t="n">
+        <v>120165.87</v>
+      </c>
+      <c r="S42" t="n">
+        <v>108907.21</v>
+      </c>
+      <c r="T42" t="n">
+        <v>91257.16</v>
+      </c>
+      <c r="U42" t="n">
+        <v>90970.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>90956.22</v>
+      </c>
+      <c r="W42" t="n">
+        <v>76557.96000000001</v>
+      </c>
+      <c r="X42" t="n">
+        <v>76631.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>76336.75</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>65850.72</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>65899.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576713.58</v>
+        <v>81305.96000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>576814.16</v>
+        <v>76914.88</v>
       </c>
       <c r="D43" t="n">
-        <v>576571.37</v>
+        <v>75285.49000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>576493.15</v>
+        <v>77857.5</v>
       </c>
       <c r="F43" t="n">
-        <v>576881.42</v>
+        <v>76777</v>
       </c>
       <c r="G43" t="n">
-        <v>576550.1800000001</v>
+        <v>83807.82000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>552632.53</v>
+        <v>83866.7</v>
       </c>
       <c r="I43" t="n">
-        <v>553050.1</v>
+        <v>83696.22</v>
       </c>
       <c r="J43" t="n">
-        <v>552388.28</v>
+        <v>83801.12</v>
       </c>
       <c r="K43" t="n">
-        <v>552993.48</v>
+        <v>83863.62</v>
       </c>
       <c r="L43" t="n">
-        <v>527895.72</v>
+        <v>82981.42999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>527734.62</v>
+        <v>78645.42999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>77434.75999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>78251.55</v>
+      </c>
+      <c r="P43" t="n">
+        <v>83789.96000000001</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>81196.95</v>
+      </c>
+      <c r="R43" t="n">
+        <v>81217.07000000001</v>
+      </c>
+      <c r="S43" t="n">
+        <v>81108.86</v>
+      </c>
+      <c r="T43" t="n">
+        <v>88906.03999999999</v>
+      </c>
+      <c r="U43" t="n">
+        <v>88899.14</v>
+      </c>
+      <c r="V43" t="n">
+        <v>87435.37</v>
+      </c>
+      <c r="W43" t="n">
+        <v>87539.50999999999</v>
+      </c>
+      <c r="X43" t="n">
+        <v>97989.07000000001</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>98065.19</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>98219.7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>98179.64999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1211874.1</v>
+        <v>527734.62</v>
       </c>
       <c r="C44" t="n">
-        <v>1212773.08</v>
+        <v>528123.98</v>
       </c>
       <c r="D44" t="n">
-        <v>1212059.14</v>
+        <v>516000.18</v>
       </c>
       <c r="E44" t="n">
-        <v>1211965.01</v>
+        <v>527906.73</v>
       </c>
       <c r="F44" t="n">
-        <v>1212208.22</v>
+        <v>538510.24</v>
       </c>
       <c r="G44" t="n">
-        <v>1204885.71</v>
+        <v>538149.04</v>
       </c>
       <c r="H44" t="n">
-        <v>1208756</v>
+        <v>587889.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1192124.85</v>
+        <v>641693.47</v>
       </c>
       <c r="J44" t="n">
-        <v>1104253.59</v>
+        <v>666397.28</v>
       </c>
       <c r="K44" t="n">
-        <v>1105328.35</v>
+        <v>716036.62</v>
       </c>
       <c r="L44" t="n">
-        <v>1104538.96</v>
+        <v>740626.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1065257.95</v>
+        <v>794826.74</v>
+      </c>
+      <c r="N44" t="n">
+        <v>795341.72</v>
+      </c>
+      <c r="O44" t="n">
+        <v>794654.47</v>
+      </c>
+      <c r="P44" t="n">
+        <v>701832.45</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>700973.27</v>
+      </c>
+      <c r="R44" t="n">
+        <v>701815.58</v>
+      </c>
+      <c r="S44" t="n">
+        <v>701168.03</v>
+      </c>
+      <c r="T44" t="n">
+        <v>701394.47</v>
+      </c>
+      <c r="U44" t="n">
+        <v>616969.75</v>
+      </c>
+      <c r="V44" t="n">
+        <v>617586.5600000001</v>
+      </c>
+      <c r="W44" t="n">
+        <v>617235.7</v>
+      </c>
+      <c r="X44" t="n">
+        <v>602362.72</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>580977.4399999999</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>600619.1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>600793.38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>615981.92</v>
+        <v>1065257.95</v>
       </c>
       <c r="C45" t="n">
-        <v>617718.1</v>
+        <v>1064971.13</v>
       </c>
       <c r="D45" t="n">
-        <v>615709.1899999999</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>985741.47</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1008687.61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>902815.1800000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>902919.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>903431.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>903610.86</v>
+      </c>
+      <c r="J45" t="n">
+        <v>903759.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>855525.58</v>
+      </c>
+      <c r="L45" t="n">
+        <v>855974.9399999999</v>
+      </c>
+      <c r="M45" t="n">
+        <v>854947.96</v>
+      </c>
+      <c r="N45" t="n">
+        <v>825009.79</v>
+      </c>
+      <c r="O45" t="n">
+        <v>804950.14</v>
+      </c>
+      <c r="P45" t="n">
+        <v>791327.38</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>762159.59</v>
+      </c>
+      <c r="R45" t="n">
+        <v>762183.1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>739133.02</v>
+      </c>
+      <c r="T45" t="n">
+        <v>680013.1899999999</v>
+      </c>
+      <c r="U45" t="n">
+        <v>661678.54</v>
+      </c>
+      <c r="V45" t="n">
+        <v>660682.47</v>
+      </c>
+      <c r="W45" t="n">
+        <v>661037.98</v>
+      </c>
+      <c r="X45" t="n">
+        <v>662073.73</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>661419.58</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>661489.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>661173.16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2352,40 +4210,82 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16264.35</v>
+        <v>16416.7</v>
       </c>
       <c r="C46" t="n">
-        <v>17100.51</v>
+        <v>16673.16</v>
       </c>
       <c r="D46" t="n">
-        <v>17097.36</v>
+        <v>16925.43</v>
       </c>
       <c r="E46" t="n">
-        <v>16851.22</v>
+        <v>16878.04</v>
       </c>
       <c r="F46" t="n">
-        <v>17136.68</v>
+        <v>17385.74</v>
       </c>
       <c r="G46" t="n">
-        <v>17791.63</v>
+        <v>16510.38</v>
       </c>
       <c r="H46" t="n">
-        <v>16261.97</v>
+        <v>17989.83</v>
       </c>
       <c r="I46" t="n">
-        <v>18007.61</v>
+        <v>17145.69</v>
       </c>
       <c r="J46" t="n">
-        <v>16203.96</v>
+        <v>17614.63</v>
       </c>
       <c r="K46" t="n">
-        <v>17863.45</v>
+        <v>17707.93</v>
       </c>
       <c r="L46" t="n">
-        <v>17107.23</v>
+        <v>15961.29</v>
       </c>
       <c r="M46" t="n">
-        <v>16416.7</v>
+        <v>17519.3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16334.35</v>
+      </c>
+      <c r="O46" t="n">
+        <v>16475.13</v>
+      </c>
+      <c r="P46" t="n">
+        <v>17222.05</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>18255.14</v>
+      </c>
+      <c r="R46" t="n">
+        <v>15986.08</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15851.1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18472.38</v>
+      </c>
+      <c r="U46" t="n">
+        <v>15245.53</v>
+      </c>
+      <c r="V46" t="n">
+        <v>120682.66</v>
+      </c>
+      <c r="W46" t="n">
+        <v>122409.44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>452232.3</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>455367.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>562772.15</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>563733.4399999999</v>
       </c>
     </row>
     <row r="47">
@@ -2395,151 +4295,252 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>60630.18</v>
+        <v>60631.4</v>
       </c>
       <c r="C47" t="n">
-        <v>60598.85</v>
+        <v>60678.72</v>
       </c>
       <c r="D47" t="n">
-        <v>60618.95</v>
+        <v>59283.85</v>
       </c>
       <c r="E47" t="n">
-        <v>60599.1</v>
+        <v>60645.3</v>
       </c>
       <c r="F47" t="n">
-        <v>60651.86</v>
+        <v>60666.02</v>
       </c>
       <c r="G47" t="n">
-        <v>60684.85</v>
+        <v>60622.52</v>
       </c>
       <c r="H47" t="n">
-        <v>60601.92</v>
+        <v>60601.61</v>
       </c>
       <c r="I47" t="n">
-        <v>60585.29</v>
+        <v>60592.8</v>
       </c>
       <c r="J47" t="n">
-        <v>60644.45</v>
+        <v>68892.11</v>
       </c>
       <c r="K47" t="n">
-        <v>60633.89</v>
+        <v>68780.46000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>60649.43</v>
+        <v>78806.08</v>
       </c>
       <c r="M47" t="n">
-        <v>60631.4</v>
+        <v>78804.67999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>78787.94</v>
+      </c>
+      <c r="O47" t="n">
+        <v>87449.23</v>
+      </c>
+      <c r="P47" t="n">
+        <v>87441.64</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>97415.53999999999</v>
+      </c>
+      <c r="R47" t="n">
+        <v>97279.16</v>
+      </c>
+      <c r="S47" t="n">
+        <v>97347.44</v>
+      </c>
+      <c r="T47" t="n">
+        <v>97335.45</v>
+      </c>
+      <c r="U47" t="n">
+        <v>97299.31</v>
+      </c>
+      <c r="V47" t="n">
+        <v>104637.74</v>
+      </c>
+      <c r="W47" t="n">
+        <v>104663.57</v>
+      </c>
+      <c r="X47" t="n">
+        <v>104646.18</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>104689.46</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>104703.57</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>104595.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>40119.38</v>
+        <v>219907.16</v>
       </c>
       <c r="C48" t="n">
-        <v>67655.60000000001</v>
+        <v>218263.63</v>
       </c>
       <c r="D48" t="n">
-        <v>80742.60000000001</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+        <v>212306.05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>217528.32</v>
+      </c>
+      <c r="F48" t="n">
+        <v>214985.18</v>
+      </c>
+      <c r="G48" t="n">
+        <v>216318.68</v>
+      </c>
+      <c r="H48" t="n">
+        <v>222802.79</v>
+      </c>
+      <c r="I48" t="n">
+        <v>228517.56</v>
+      </c>
+      <c r="J48" t="n">
+        <v>240138.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>238906.56</v>
+      </c>
+      <c r="L48" t="n">
+        <v>238814.63</v>
+      </c>
+      <c r="M48" t="n">
+        <v>232333.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>197248.82</v>
+      </c>
+      <c r="O48" t="n">
+        <v>195396.99</v>
+      </c>
+      <c r="P48" t="n">
+        <v>193588.91</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>192367.95</v>
+      </c>
+      <c r="R48" t="n">
+        <v>186225.19</v>
+      </c>
+      <c r="S48" t="n">
+        <v>177464.05</v>
+      </c>
+      <c r="T48" t="n">
+        <v>175444.49</v>
+      </c>
+      <c r="U48" t="n">
+        <v>166898.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>171448.67</v>
+      </c>
+      <c r="W48" t="n">
+        <v>171607.52</v>
+      </c>
+      <c r="X48" t="n">
+        <v>181728.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>182377.74</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>186494.36</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>184815.71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>244235.28</v>
+        <v>9895822.32</v>
       </c>
       <c r="C49" t="n">
-        <v>242205.42</v>
+        <v>9821863.5</v>
       </c>
       <c r="D49" t="n">
-        <v>244188.71</v>
+        <v>9553772.130000001</v>
       </c>
       <c r="E49" t="n">
-        <v>241509.63</v>
+        <v>9788774.380000001</v>
       </c>
       <c r="F49" t="n">
-        <v>241254.59</v>
+        <v>9674332.98</v>
       </c>
       <c r="G49" t="n">
-        <v>239076.23</v>
+        <v>9734340.380000001</v>
       </c>
       <c r="H49" t="n">
-        <v>224155.65</v>
+        <v>10026125.43</v>
       </c>
       <c r="I49" t="n">
-        <v>230473.66</v>
+        <v>10283290.12</v>
       </c>
       <c r="J49" t="n">
-        <v>227414.56</v>
+        <v>10806250.5</v>
       </c>
       <c r="K49" t="n">
-        <v>225629.46</v>
+        <v>10750795.31</v>
       </c>
       <c r="L49" t="n">
-        <v>221480.96</v>
+        <v>10746658.21</v>
       </c>
       <c r="M49" t="n">
-        <v>219907.16</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>11479058.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>8477189.529999999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11476869.28</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10867933.22</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10856456.63</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10758430.39</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10087004.39</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10371314.52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>10233655.17</v>
-      </c>
-      <c r="K50" t="n">
-        <v>10153325.48</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9966643.25</v>
-      </c>
-      <c r="M50" t="n">
-        <v>9895822.32</v>
+        <v>10455007.46</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8678948.24</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8597467.48</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8517912.15</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>8464189.939999999</v>
+      </c>
+      <c r="R49" t="n">
+        <v>8193908.54</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7808418.33</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7544113.15</v>
+      </c>
+      <c r="U49" t="n">
+        <v>7176635.47</v>
+      </c>
+      <c r="V49" t="n">
+        <v>7372292.65</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7379123.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7814336.41</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>7659864.92</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>7832763.1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7762259.89</v>
       </c>
     </row>
   </sheetData>
